--- a/datas/shared/GrowUpTasks.xlsx
+++ b/datas/shared/GrowUpTasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="0" windowWidth="25220" windowHeight="19080" tabRatio="883"/>
+    <workbookView xWindow="8100" yWindow="620" windowWidth="25220" windowHeight="19080" tabRatio="883" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="cityBuild" sheetId="18" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="135">
   <si>
     <t>INT_wood</t>
   </si>
@@ -585,6 +585,22 @@
     <t>INT_power</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>infantry_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -775,7 +791,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="476">
+  <cellStyleXfs count="490">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -790,6 +806,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,7 +1311,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="476">
+  <cellStyles count="490">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -1522,6 +1552,13 @@
     <cellStyle name="超链接" xfId="470" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="472" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="488" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1755,6 +1792,13 @@
     <cellStyle name="访问过的超链接" xfId="471" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="473" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="489" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -2206,7 +2250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -72645,10 +72689,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P253"/>
+  <dimension ref="A1:P295"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="D245" sqref="D245"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -74944,7 +74988,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D58" s="7">
         <v>2</v>
@@ -74984,7 +75028,7 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D59" s="7">
         <v>3</v>
@@ -75024,7 +75068,7 @@
         <v>3</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D60" s="7">
         <v>4</v>
@@ -75064,7 +75108,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D61" s="7">
         <v>5</v>
@@ -75104,7 +75148,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D62" s="7">
         <v>6</v>
@@ -75144,7 +75188,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D63" s="7">
         <v>7</v>
@@ -75184,7 +75228,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D64" s="7">
         <v>8</v>
@@ -75224,7 +75268,7 @@
         <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D65" s="7">
         <v>9</v>
@@ -75264,7 +75308,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D66" s="7">
         <v>10</v>
@@ -75304,7 +75348,7 @@
         <v>10</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D67" s="7">
         <v>11</v>
@@ -75344,7 +75388,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D68" s="7">
         <v>12</v>
@@ -75384,7 +75428,7 @@
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D69" s="7">
         <v>13</v>
@@ -75424,7 +75468,7 @@
         <v>13</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D70" s="7">
         <v>14</v>
@@ -75464,7 +75508,7 @@
         <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="D71" s="7">
         <v>15</v>
@@ -75504,7 +75548,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D72" s="7">
         <v>2</v>
@@ -75544,7 +75588,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D73" s="7">
         <v>3</v>
@@ -75584,7 +75628,7 @@
         <v>3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D74" s="7">
         <v>4</v>
@@ -75624,7 +75668,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="7">
         <v>5</v>
@@ -75664,7 +75708,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="7">
         <v>6</v>
@@ -75704,7 +75748,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D77" s="7">
         <v>7</v>
@@ -75744,7 +75788,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D78" s="7">
         <v>8</v>
@@ -75784,7 +75828,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D79" s="7">
         <v>9</v>
@@ -75824,7 +75868,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D80" s="7">
         <v>10</v>
@@ -75864,7 +75908,7 @@
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D81" s="7">
         <v>11</v>
@@ -75904,7 +75948,7 @@
         <v>11</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D82" s="7">
         <v>12</v>
@@ -75944,7 +75988,7 @@
         <v>12</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" s="7">
         <v>13</v>
@@ -75984,7 +76028,7 @@
         <v>13</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D84" s="7">
         <v>14</v>
@@ -76024,7 +76068,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" s="7">
         <v>15</v>
@@ -76064,7 +76108,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D86" s="7">
         <v>2</v>
@@ -76104,7 +76148,7 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D87" s="7">
         <v>3</v>
@@ -76144,7 +76188,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D88" s="7">
         <v>4</v>
@@ -76184,7 +76228,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" s="7">
         <v>5</v>
@@ -76224,7 +76268,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90" s="7">
         <v>6</v>
@@ -76264,7 +76308,7 @@
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" s="7">
         <v>7</v>
@@ -76304,7 +76348,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="7">
         <v>8</v>
@@ -76344,7 +76388,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="7">
         <v>9</v>
@@ -76384,7 +76428,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="7">
         <v>10</v>
@@ -76424,7 +76468,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="7">
         <v>11</v>
@@ -76464,7 +76508,7 @@
         <v>11</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="7">
         <v>12</v>
@@ -76504,7 +76548,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="7">
         <v>13</v>
@@ -76544,7 +76588,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="7">
         <v>14</v>
@@ -76584,7 +76628,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D99" s="7">
         <v>15</v>
@@ -76624,7 +76668,7 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="7">
         <v>2</v>
@@ -76664,7 +76708,7 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="7">
         <v>3</v>
@@ -76704,7 +76748,7 @@
         <v>3</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="7">
         <v>4</v>
@@ -76744,7 +76788,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="7">
         <v>5</v>
@@ -76784,7 +76828,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="7">
         <v>6</v>
@@ -76824,7 +76868,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D105" s="7">
         <v>7</v>
@@ -76864,7 +76908,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D106" s="7">
         <v>8</v>
@@ -76904,7 +76948,7 @@
         <v>8</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D107" s="7">
         <v>9</v>
@@ -76944,7 +76988,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D108" s="7">
         <v>10</v>
@@ -76984,7 +77028,7 @@
         <v>10</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D109" s="7">
         <v>11</v>
@@ -77024,7 +77068,7 @@
         <v>11</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D110" s="7">
         <v>12</v>
@@ -77064,7 +77108,7 @@
         <v>12</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D111" s="7">
         <v>13</v>
@@ -77104,7 +77148,7 @@
         <v>13</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D112" s="7">
         <v>14</v>
@@ -77144,7 +77188,7 @@
         <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D113" s="7">
         <v>15</v>
@@ -77184,7 +77228,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D114" s="7">
         <v>2</v>
@@ -77224,7 +77268,7 @@
         <v>2</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D115" s="7">
         <v>3</v>
@@ -77264,7 +77308,7 @@
         <v>3</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D116" s="7">
         <v>4</v>
@@ -77304,7 +77348,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D117" s="7">
         <v>5</v>
@@ -77344,7 +77388,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D118" s="7">
         <v>6</v>
@@ -77384,7 +77428,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D119" s="7">
         <v>7</v>
@@ -77424,7 +77468,7 @@
         <v>7</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D120" s="7">
         <v>8</v>
@@ -77464,7 +77508,7 @@
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D121" s="7">
         <v>9</v>
@@ -77504,7 +77548,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D122" s="7">
         <v>10</v>
@@ -77544,7 +77588,7 @@
         <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D123" s="7">
         <v>11</v>
@@ -77584,7 +77628,7 @@
         <v>11</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D124" s="7">
         <v>12</v>
@@ -77624,7 +77668,7 @@
         <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D125" s="7">
         <v>13</v>
@@ -77664,7 +77708,7 @@
         <v>13</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D126" s="7">
         <v>14</v>
@@ -77704,7 +77748,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D127" s="7">
         <v>15</v>
@@ -77744,7 +77788,7 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D128" s="7">
         <v>2</v>
@@ -77784,7 +77828,7 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D129" s="7">
         <v>3</v>
@@ -77824,7 +77868,7 @@
         <v>3</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D130" s="7">
         <v>4</v>
@@ -77864,7 +77908,7 @@
         <v>4</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D131" s="7">
         <v>5</v>
@@ -77904,7 +77948,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D132" s="7">
         <v>6</v>
@@ -77944,7 +77988,7 @@
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D133" s="7">
         <v>7</v>
@@ -77984,7 +78028,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D134" s="7">
         <v>8</v>
@@ -78024,7 +78068,7 @@
         <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D135" s="7">
         <v>9</v>
@@ -78064,7 +78108,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D136" s="7">
         <v>10</v>
@@ -78104,7 +78148,7 @@
         <v>10</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D137" s="7">
         <v>11</v>
@@ -78144,7 +78188,7 @@
         <v>11</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D138" s="7">
         <v>12</v>
@@ -78184,7 +78228,7 @@
         <v>12</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D139" s="7">
         <v>13</v>
@@ -78224,7 +78268,7 @@
         <v>13</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D140" s="7">
         <v>14</v>
@@ -78264,7 +78308,7 @@
         <v>14</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D141" s="7">
         <v>15</v>
@@ -78304,7 +78348,7 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D142" s="7">
         <v>2</v>
@@ -78344,7 +78388,7 @@
         <v>2</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D143" s="7">
         <v>3</v>
@@ -78384,7 +78428,7 @@
         <v>3</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D144" s="7">
         <v>4</v>
@@ -78424,7 +78468,7 @@
         <v>4</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D145" s="7">
         <v>5</v>
@@ -78464,7 +78508,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D146" s="7">
         <v>6</v>
@@ -78504,7 +78548,7 @@
         <v>6</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D147" s="7">
         <v>7</v>
@@ -78544,7 +78588,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D148" s="7">
         <v>8</v>
@@ -78584,7 +78628,7 @@
         <v>8</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D149" s="7">
         <v>9</v>
@@ -78624,7 +78668,7 @@
         <v>9</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D150" s="7">
         <v>10</v>
@@ -78664,7 +78708,7 @@
         <v>10</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D151" s="7">
         <v>11</v>
@@ -78704,7 +78748,7 @@
         <v>11</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D152" s="7">
         <v>12</v>
@@ -78744,7 +78788,7 @@
         <v>12</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D153" s="7">
         <v>13</v>
@@ -78784,7 +78828,7 @@
         <v>13</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D154" s="7">
         <v>14</v>
@@ -78824,7 +78868,7 @@
         <v>14</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D155" s="7">
         <v>15</v>
@@ -78864,7 +78908,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D156" s="7">
         <v>2</v>
@@ -78904,7 +78948,7 @@
         <v>2</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D157" s="7">
         <v>3</v>
@@ -78944,7 +78988,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D158" s="7">
         <v>4</v>
@@ -78984,7 +79028,7 @@
         <v>4</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D159" s="7">
         <v>5</v>
@@ -79024,7 +79068,7 @@
         <v>5</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D160" s="7">
         <v>6</v>
@@ -79064,7 +79108,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D161" s="7">
         <v>7</v>
@@ -79104,7 +79148,7 @@
         <v>7</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D162" s="7">
         <v>8</v>
@@ -79144,7 +79188,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D163" s="7">
         <v>9</v>
@@ -79184,7 +79228,7 @@
         <v>9</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D164" s="7">
         <v>10</v>
@@ -79224,7 +79268,7 @@
         <v>10</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D165" s="7">
         <v>11</v>
@@ -79264,7 +79308,7 @@
         <v>11</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D166" s="7">
         <v>12</v>
@@ -79304,7 +79348,7 @@
         <v>12</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D167" s="7">
         <v>13</v>
@@ -79344,7 +79388,7 @@
         <v>13</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D168" s="7">
         <v>14</v>
@@ -79384,7 +79428,7 @@
         <v>14</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D169" s="7">
         <v>15</v>
@@ -79424,7 +79468,7 @@
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D170" s="7">
         <v>2</v>
@@ -79464,7 +79508,7 @@
         <v>2</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D171" s="7">
         <v>3</v>
@@ -79504,7 +79548,7 @@
         <v>3</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D172" s="7">
         <v>4</v>
@@ -79544,7 +79588,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D173" s="7">
         <v>5</v>
@@ -79584,7 +79628,7 @@
         <v>5</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D174" s="7">
         <v>6</v>
@@ -79624,7 +79668,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D175" s="7">
         <v>7</v>
@@ -79664,7 +79708,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D176" s="7">
         <v>8</v>
@@ -79704,7 +79748,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D177" s="7">
         <v>9</v>
@@ -79744,7 +79788,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D178" s="7">
         <v>10</v>
@@ -79784,7 +79828,7 @@
         <v>10</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D179" s="7">
         <v>11</v>
@@ -79824,7 +79868,7 @@
         <v>11</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D180" s="7">
         <v>12</v>
@@ -79864,7 +79908,7 @@
         <v>12</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D181" s="7">
         <v>13</v>
@@ -79904,7 +79948,7 @@
         <v>13</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D182" s="7">
         <v>14</v>
@@ -79944,7 +79988,7 @@
         <v>14</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D183" s="7">
         <v>15</v>
@@ -79984,7 +80028,7 @@
         <v>1</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D184" s="7">
         <v>2</v>
@@ -80024,7 +80068,7 @@
         <v>2</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D185" s="7">
         <v>3</v>
@@ -80064,7 +80108,7 @@
         <v>3</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D186" s="7">
         <v>4</v>
@@ -80104,7 +80148,7 @@
         <v>4</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D187" s="7">
         <v>5</v>
@@ -80144,7 +80188,7 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D188" s="7">
         <v>6</v>
@@ -80184,7 +80228,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D189" s="7">
         <v>7</v>
@@ -80224,7 +80268,7 @@
         <v>7</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D190" s="7">
         <v>8</v>
@@ -80264,7 +80308,7 @@
         <v>8</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D191" s="7">
         <v>9</v>
@@ -80304,7 +80348,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D192" s="7">
         <v>10</v>
@@ -80344,7 +80388,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D193" s="7">
         <v>11</v>
@@ -80384,7 +80428,7 @@
         <v>11</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D194" s="7">
         <v>12</v>
@@ -80424,7 +80468,7 @@
         <v>12</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D195" s="7">
         <v>13</v>
@@ -80464,7 +80508,7 @@
         <v>13</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D196" s="7">
         <v>14</v>
@@ -80504,7 +80548,7 @@
         <v>14</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D197" s="7">
         <v>15</v>
@@ -80544,7 +80588,7 @@
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D198" s="7">
         <v>2</v>
@@ -80584,7 +80628,7 @@
         <v>2</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D199" s="7">
         <v>3</v>
@@ -80624,7 +80668,7 @@
         <v>3</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D200" s="7">
         <v>4</v>
@@ -80664,7 +80708,7 @@
         <v>4</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D201" s="7">
         <v>5</v>
@@ -80704,7 +80748,7 @@
         <v>5</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D202" s="7">
         <v>6</v>
@@ -80744,7 +80788,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D203" s="7">
         <v>7</v>
@@ -80784,7 +80828,7 @@
         <v>7</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D204" s="7">
         <v>8</v>
@@ -80824,7 +80868,7 @@
         <v>8</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D205" s="7">
         <v>9</v>
@@ -80864,7 +80908,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D206" s="7">
         <v>10</v>
@@ -80904,7 +80948,7 @@
         <v>10</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D207" s="7">
         <v>11</v>
@@ -80944,7 +80988,7 @@
         <v>11</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D208" s="7">
         <v>12</v>
@@ -80984,7 +81028,7 @@
         <v>12</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D209" s="7">
         <v>13</v>
@@ -81024,7 +81068,7 @@
         <v>13</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D210" s="7">
         <v>14</v>
@@ -81064,7 +81108,7 @@
         <v>14</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D211" s="7">
         <v>15</v>
@@ -81104,7 +81148,7 @@
         <v>1</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D212" s="7">
         <v>2</v>
@@ -81144,7 +81188,7 @@
         <v>2</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D213" s="7">
         <v>3</v>
@@ -81184,7 +81228,7 @@
         <v>3</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D214" s="7">
         <v>4</v>
@@ -81224,7 +81268,7 @@
         <v>4</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D215" s="7">
         <v>5</v>
@@ -81264,7 +81308,7 @@
         <v>5</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D216" s="7">
         <v>6</v>
@@ -81304,7 +81348,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D217" s="7">
         <v>7</v>
@@ -81344,7 +81388,7 @@
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D218" s="7">
         <v>8</v>
@@ -81384,7 +81428,7 @@
         <v>8</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D219" s="7">
         <v>9</v>
@@ -81424,7 +81468,7 @@
         <v>9</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D220" s="7">
         <v>10</v>
@@ -81464,7 +81508,7 @@
         <v>10</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D221" s="7">
         <v>11</v>
@@ -81504,7 +81548,7 @@
         <v>11</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D222" s="7">
         <v>12</v>
@@ -81544,7 +81588,7 @@
         <v>12</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D223" s="7">
         <v>13</v>
@@ -81584,7 +81628,7 @@
         <v>13</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D224" s="7">
         <v>14</v>
@@ -81624,7 +81668,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D225" s="7">
         <v>15</v>
@@ -81657,17 +81701,39 @@
       <c r="P225" s="7"/>
     </row>
     <row r="226" spans="1:16" ht="20" customHeight="1">
-      <c r="A226" s="6"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="7"/>
-      <c r="I226" s="7"/>
-      <c r="J226" s="7"/>
-      <c r="K226" s="7"/>
+      <c r="A226" s="6">
+        <v>224</v>
+      </c>
+      <c r="B226" s="7">
+        <v>1</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D226" s="7">
+        <v>2</v>
+      </c>
+      <c r="E226" s="7">
+        <v>480</v>
+      </c>
+      <c r="F226" s="7">
+        <v>480</v>
+      </c>
+      <c r="G226" s="7">
+        <v>480</v>
+      </c>
+      <c r="H226" s="7">
+        <v>480</v>
+      </c>
+      <c r="I226" s="7">
+        <v>480</v>
+      </c>
+      <c r="J226" s="7">
+        <v>0</v>
+      </c>
+      <c r="K226" s="7">
+        <v>200</v>
+      </c>
       <c r="L226" s="7"/>
       <c r="M226" s="7"/>
       <c r="N226" s="7"/>
@@ -81675,17 +81741,39 @@
       <c r="P226" s="7"/>
     </row>
     <row r="227" spans="1:16" ht="20" customHeight="1">
-      <c r="A227" s="6"/>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-      <c r="K227" s="7"/>
+      <c r="A227" s="6">
+        <v>225</v>
+      </c>
+      <c r="B227" s="7">
+        <v>2</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" s="7">
+        <v>3</v>
+      </c>
+      <c r="E227" s="7">
+        <v>1080</v>
+      </c>
+      <c r="F227" s="7">
+        <v>1080</v>
+      </c>
+      <c r="G227" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H227" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I227" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J227" s="7">
+        <v>0</v>
+      </c>
+      <c r="K227" s="7">
+        <v>450</v>
+      </c>
       <c r="L227" s="7"/>
       <c r="M227" s="7"/>
       <c r="N227" s="7"/>
@@ -81693,17 +81781,39 @@
       <c r="P227" s="7"/>
     </row>
     <row r="228" spans="1:16" ht="20" customHeight="1">
-      <c r="A228" s="6"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
+      <c r="A228" s="6">
+        <v>226</v>
+      </c>
+      <c r="B228" s="7">
+        <v>3</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D228" s="7">
+        <v>4</v>
+      </c>
+      <c r="E228" s="7">
+        <v>1920</v>
+      </c>
+      <c r="F228" s="7">
+        <v>1920</v>
+      </c>
+      <c r="G228" s="7">
+        <v>1920</v>
+      </c>
+      <c r="H228" s="7">
+        <v>1920</v>
+      </c>
+      <c r="I228" s="7">
+        <v>1920</v>
+      </c>
+      <c r="J228" s="7">
+        <v>0</v>
+      </c>
+      <c r="K228" s="7">
+        <v>800</v>
+      </c>
       <c r="L228" s="7"/>
       <c r="M228" s="7"/>
       <c r="N228" s="7"/>
@@ -81711,17 +81821,39 @@
       <c r="P228" s="7"/>
     </row>
     <row r="229" spans="1:16" ht="20" customHeight="1">
-      <c r="A229" s="6"/>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-      <c r="K229" s="7"/>
+      <c r="A229" s="6">
+        <v>227</v>
+      </c>
+      <c r="B229" s="7">
+        <v>4</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D229" s="7">
+        <v>5</v>
+      </c>
+      <c r="E229" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F229" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G229" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H229" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I229" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J229" s="7">
+        <v>0</v>
+      </c>
+      <c r="K229" s="7">
+        <v>1250</v>
+      </c>
       <c r="L229" s="7"/>
       <c r="M229" s="7"/>
       <c r="N229" s="7"/>
@@ -81729,17 +81861,39 @@
       <c r="P229" s="7"/>
     </row>
     <row r="230" spans="1:16" ht="20" customHeight="1">
-      <c r="A230" s="6"/>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
+      <c r="A230" s="6">
+        <v>228</v>
+      </c>
+      <c r="B230" s="7">
+        <v>5</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D230" s="7">
+        <v>6</v>
+      </c>
+      <c r="E230" s="7">
+        <v>4320</v>
+      </c>
+      <c r="F230" s="7">
+        <v>4320</v>
+      </c>
+      <c r="G230" s="7">
+        <v>4320</v>
+      </c>
+      <c r="H230" s="7">
+        <v>4320</v>
+      </c>
+      <c r="I230" s="7">
+        <v>4320</v>
+      </c>
+      <c r="J230" s="7">
+        <v>0</v>
+      </c>
+      <c r="K230" s="7">
+        <v>1800</v>
+      </c>
       <c r="L230" s="7"/>
       <c r="M230" s="7"/>
       <c r="N230" s="7"/>
@@ -81747,17 +81901,39 @@
       <c r="P230" s="7"/>
     </row>
     <row r="231" spans="1:16" ht="20" customHeight="1">
-      <c r="A231" s="6"/>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7"/>
-      <c r="G231" s="7"/>
-      <c r="H231" s="7"/>
-      <c r="I231" s="7"/>
-      <c r="J231" s="7"/>
-      <c r="K231" s="7"/>
+      <c r="A231" s="6">
+        <v>229</v>
+      </c>
+      <c r="B231" s="7">
+        <v>6</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231" s="7">
+        <v>7</v>
+      </c>
+      <c r="E231" s="7">
+        <v>5880</v>
+      </c>
+      <c r="F231" s="7">
+        <v>5880</v>
+      </c>
+      <c r="G231" s="7">
+        <v>5880</v>
+      </c>
+      <c r="H231" s="7">
+        <v>5880</v>
+      </c>
+      <c r="I231" s="7">
+        <v>5880</v>
+      </c>
+      <c r="J231" s="7">
+        <v>0</v>
+      </c>
+      <c r="K231" s="7">
+        <v>2450</v>
+      </c>
       <c r="L231" s="7"/>
       <c r="M231" s="7"/>
       <c r="N231" s="7"/>
@@ -81765,17 +81941,39 @@
       <c r="P231" s="7"/>
     </row>
     <row r="232" spans="1:16" ht="20" customHeight="1">
-      <c r="A232" s="6"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7"/>
-      <c r="G232" s="7"/>
-      <c r="H232" s="7"/>
-      <c r="I232" s="7"/>
-      <c r="J232" s="7"/>
-      <c r="K232" s="7"/>
+      <c r="A232" s="6">
+        <v>230</v>
+      </c>
+      <c r="B232" s="7">
+        <v>7</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D232" s="7">
+        <v>8</v>
+      </c>
+      <c r="E232" s="7">
+        <v>7680</v>
+      </c>
+      <c r="F232" s="7">
+        <v>7680</v>
+      </c>
+      <c r="G232" s="7">
+        <v>7680</v>
+      </c>
+      <c r="H232" s="7">
+        <v>7680</v>
+      </c>
+      <c r="I232" s="7">
+        <v>7680</v>
+      </c>
+      <c r="J232" s="7">
+        <v>0</v>
+      </c>
+      <c r="K232" s="7">
+        <v>3200</v>
+      </c>
       <c r="L232" s="7"/>
       <c r="M232" s="7"/>
       <c r="N232" s="7"/>
@@ -81783,17 +81981,39 @@
       <c r="P232" s="7"/>
     </row>
     <row r="233" spans="1:16" ht="20" customHeight="1">
-      <c r="A233" s="6"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
-      <c r="F233" s="7"/>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7"/>
-      <c r="I233" s="7"/>
-      <c r="J233" s="7"/>
-      <c r="K233" s="7"/>
+      <c r="A233" s="6">
+        <v>231</v>
+      </c>
+      <c r="B233" s="7">
+        <v>8</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D233" s="7">
+        <v>9</v>
+      </c>
+      <c r="E233" s="7">
+        <v>9720</v>
+      </c>
+      <c r="F233" s="7">
+        <v>9720</v>
+      </c>
+      <c r="G233" s="7">
+        <v>9720</v>
+      </c>
+      <c r="H233" s="7">
+        <v>9720</v>
+      </c>
+      <c r="I233" s="7">
+        <v>9720</v>
+      </c>
+      <c r="J233" s="7">
+        <v>0</v>
+      </c>
+      <c r="K233" s="7">
+        <v>4050</v>
+      </c>
       <c r="L233" s="7"/>
       <c r="M233" s="7"/>
       <c r="N233" s="7"/>
@@ -81801,17 +82021,39 @@
       <c r="P233" s="7"/>
     </row>
     <row r="234" spans="1:16" ht="20" customHeight="1">
-      <c r="A234" s="6"/>
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="7"/>
-      <c r="E234" s="7"/>
-      <c r="F234" s="7"/>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7"/>
-      <c r="I234" s="7"/>
-      <c r="J234" s="7"/>
-      <c r="K234" s="7"/>
+      <c r="A234" s="6">
+        <v>232</v>
+      </c>
+      <c r="B234" s="7">
+        <v>9</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D234" s="7">
+        <v>10</v>
+      </c>
+      <c r="E234" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F234" s="7">
+        <v>12000</v>
+      </c>
+      <c r="G234" s="7">
+        <v>12000</v>
+      </c>
+      <c r="H234" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I234" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J234" s="7">
+        <v>0</v>
+      </c>
+      <c r="K234" s="7">
+        <v>5000</v>
+      </c>
       <c r="L234" s="7"/>
       <c r="M234" s="7"/>
       <c r="N234" s="7"/>
@@ -81819,17 +82061,39 @@
       <c r="P234" s="7"/>
     </row>
     <row r="235" spans="1:16" ht="20" customHeight="1">
-      <c r="A235" s="6"/>
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-      <c r="D235" s="7"/>
-      <c r="E235" s="7"/>
-      <c r="F235" s="7"/>
-      <c r="G235" s="7"/>
-      <c r="H235" s="7"/>
-      <c r="I235" s="7"/>
-      <c r="J235" s="7"/>
-      <c r="K235" s="7"/>
+      <c r="A235" s="6">
+        <v>233</v>
+      </c>
+      <c r="B235" s="7">
+        <v>10</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D235" s="7">
+        <v>11</v>
+      </c>
+      <c r="E235" s="7">
+        <v>14520</v>
+      </c>
+      <c r="F235" s="7">
+        <v>14520</v>
+      </c>
+      <c r="G235" s="7">
+        <v>14520</v>
+      </c>
+      <c r="H235" s="7">
+        <v>14520</v>
+      </c>
+      <c r="I235" s="7">
+        <v>14520</v>
+      </c>
+      <c r="J235" s="7">
+        <v>0</v>
+      </c>
+      <c r="K235" s="7">
+        <v>6050</v>
+      </c>
       <c r="L235" s="7"/>
       <c r="M235" s="7"/>
       <c r="N235" s="7"/>
@@ -81837,17 +82101,39 @@
       <c r="P235" s="7"/>
     </row>
     <row r="236" spans="1:16" ht="20" customHeight="1">
-      <c r="A236" s="6"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
-      <c r="H236" s="7"/>
-      <c r="I236" s="7"/>
-      <c r="J236" s="7"/>
-      <c r="K236" s="7"/>
+      <c r="A236" s="6">
+        <v>234</v>
+      </c>
+      <c r="B236" s="7">
+        <v>11</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D236" s="7">
+        <v>12</v>
+      </c>
+      <c r="E236" s="7">
+        <v>17280</v>
+      </c>
+      <c r="F236" s="7">
+        <v>17280</v>
+      </c>
+      <c r="G236" s="7">
+        <v>17280</v>
+      </c>
+      <c r="H236" s="7">
+        <v>17280</v>
+      </c>
+      <c r="I236" s="7">
+        <v>17280</v>
+      </c>
+      <c r="J236" s="7">
+        <v>0</v>
+      </c>
+      <c r="K236" s="7">
+        <v>7200</v>
+      </c>
       <c r="L236" s="7"/>
       <c r="M236" s="7"/>
       <c r="N236" s="7"/>
@@ -81855,17 +82141,39 @@
       <c r="P236" s="7"/>
     </row>
     <row r="237" spans="1:16" ht="20" customHeight="1">
-      <c r="A237" s="6"/>
-      <c r="B237" s="7"/>
-      <c r="C237" s="7"/>
-      <c r="D237" s="7"/>
-      <c r="E237" s="7"/>
-      <c r="F237" s="7"/>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7"/>
-      <c r="I237" s="7"/>
-      <c r="J237" s="7"/>
-      <c r="K237" s="7"/>
+      <c r="A237" s="6">
+        <v>235</v>
+      </c>
+      <c r="B237" s="7">
+        <v>12</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D237" s="7">
+        <v>13</v>
+      </c>
+      <c r="E237" s="7">
+        <v>20280</v>
+      </c>
+      <c r="F237" s="7">
+        <v>20280</v>
+      </c>
+      <c r="G237" s="7">
+        <v>20280</v>
+      </c>
+      <c r="H237" s="7">
+        <v>20280</v>
+      </c>
+      <c r="I237" s="7">
+        <v>20280</v>
+      </c>
+      <c r="J237" s="7">
+        <v>0</v>
+      </c>
+      <c r="K237" s="7">
+        <v>8450</v>
+      </c>
       <c r="L237" s="7"/>
       <c r="M237" s="7"/>
       <c r="N237" s="7"/>
@@ -81873,17 +82181,39 @@
       <c r="P237" s="7"/>
     </row>
     <row r="238" spans="1:16" ht="20" customHeight="1">
-      <c r="A238" s="6"/>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
-      <c r="F238" s="7"/>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7"/>
-      <c r="I238" s="7"/>
-      <c r="J238" s="7"/>
-      <c r="K238" s="7"/>
+      <c r="A238" s="6">
+        <v>236</v>
+      </c>
+      <c r="B238" s="7">
+        <v>13</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D238" s="7">
+        <v>14</v>
+      </c>
+      <c r="E238" s="7">
+        <v>23520</v>
+      </c>
+      <c r="F238" s="7">
+        <v>23520</v>
+      </c>
+      <c r="G238" s="7">
+        <v>23520</v>
+      </c>
+      <c r="H238" s="7">
+        <v>23520</v>
+      </c>
+      <c r="I238" s="7">
+        <v>23520</v>
+      </c>
+      <c r="J238" s="7">
+        <v>0</v>
+      </c>
+      <c r="K238" s="7">
+        <v>9800</v>
+      </c>
       <c r="L238" s="7"/>
       <c r="M238" s="7"/>
       <c r="N238" s="7"/>
@@ -81891,17 +82221,39 @@
       <c r="P238" s="7"/>
     </row>
     <row r="239" spans="1:16" ht="20" customHeight="1">
-      <c r="A239" s="6"/>
-      <c r="B239" s="7"/>
-      <c r="C239" s="7"/>
-      <c r="D239" s="7"/>
-      <c r="E239" s="7"/>
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="7"/>
-      <c r="I239" s="7"/>
-      <c r="J239" s="7"/>
-      <c r="K239" s="7"/>
+      <c r="A239" s="6">
+        <v>237</v>
+      </c>
+      <c r="B239" s="7">
+        <v>14</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D239" s="7">
+        <v>15</v>
+      </c>
+      <c r="E239" s="7">
+        <v>27000</v>
+      </c>
+      <c r="F239" s="7">
+        <v>27000</v>
+      </c>
+      <c r="G239" s="7">
+        <v>27000</v>
+      </c>
+      <c r="H239" s="7">
+        <v>27000</v>
+      </c>
+      <c r="I239" s="7">
+        <v>27000</v>
+      </c>
+      <c r="J239" s="7">
+        <v>0</v>
+      </c>
+      <c r="K239" s="7">
+        <v>11250</v>
+      </c>
       <c r="L239" s="7"/>
       <c r="M239" s="7"/>
       <c r="N239" s="7"/>
@@ -81909,17 +82261,39 @@
       <c r="P239" s="7"/>
     </row>
     <row r="240" spans="1:16" ht="20" customHeight="1">
-      <c r="A240" s="6"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="F240" s="7"/>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7"/>
-      <c r="I240" s="7"/>
-      <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
+      <c r="A240" s="6">
+        <v>238</v>
+      </c>
+      <c r="B240" s="7">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D240" s="7">
+        <v>2</v>
+      </c>
+      <c r="E240" s="7">
+        <v>480</v>
+      </c>
+      <c r="F240" s="7">
+        <v>480</v>
+      </c>
+      <c r="G240" s="7">
+        <v>480</v>
+      </c>
+      <c r="H240" s="7">
+        <v>480</v>
+      </c>
+      <c r="I240" s="7">
+        <v>480</v>
+      </c>
+      <c r="J240" s="7">
+        <v>0</v>
+      </c>
+      <c r="K240" s="7">
+        <v>200</v>
+      </c>
       <c r="L240" s="7"/>
       <c r="M240" s="7"/>
       <c r="N240" s="7"/>
@@ -81927,17 +82301,39 @@
       <c r="P240" s="7"/>
     </row>
     <row r="241" spans="1:16" ht="20" customHeight="1">
-      <c r="A241" s="6"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7"/>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7"/>
-      <c r="I241" s="7"/>
-      <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
+      <c r="A241" s="6">
+        <v>239</v>
+      </c>
+      <c r="B241" s="7">
+        <v>2</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D241" s="7">
+        <v>3</v>
+      </c>
+      <c r="E241" s="7">
+        <v>1080</v>
+      </c>
+      <c r="F241" s="7">
+        <v>1080</v>
+      </c>
+      <c r="G241" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H241" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I241" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J241" s="7">
+        <v>0</v>
+      </c>
+      <c r="K241" s="7">
+        <v>450</v>
+      </c>
       <c r="L241" s="7"/>
       <c r="M241" s="7"/>
       <c r="N241" s="7"/>
@@ -81945,17 +82341,39 @@
       <c r="P241" s="7"/>
     </row>
     <row r="242" spans="1:16" ht="20" customHeight="1">
-      <c r="A242" s="6"/>
-      <c r="B242" s="7"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7"/>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7"/>
-      <c r="I242" s="7"/>
-      <c r="J242" s="7"/>
-      <c r="K242" s="7"/>
+      <c r="A242" s="6">
+        <v>240</v>
+      </c>
+      <c r="B242" s="7">
+        <v>3</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D242" s="7">
+        <v>4</v>
+      </c>
+      <c r="E242" s="7">
+        <v>1920</v>
+      </c>
+      <c r="F242" s="7">
+        <v>1920</v>
+      </c>
+      <c r="G242" s="7">
+        <v>1920</v>
+      </c>
+      <c r="H242" s="7">
+        <v>1920</v>
+      </c>
+      <c r="I242" s="7">
+        <v>1920</v>
+      </c>
+      <c r="J242" s="7">
+        <v>0</v>
+      </c>
+      <c r="K242" s="7">
+        <v>800</v>
+      </c>
       <c r="L242" s="7"/>
       <c r="M242" s="7"/>
       <c r="N242" s="7"/>
@@ -81963,17 +82381,39 @@
       <c r="P242" s="7"/>
     </row>
     <row r="243" spans="1:16" ht="20" customHeight="1">
-      <c r="A243" s="6"/>
-      <c r="B243" s="7"/>
-      <c r="C243" s="7"/>
-      <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="7"/>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7"/>
-      <c r="I243" s="7"/>
-      <c r="J243" s="7"/>
-      <c r="K243" s="7"/>
+      <c r="A243" s="6">
+        <v>241</v>
+      </c>
+      <c r="B243" s="7">
+        <v>4</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D243" s="7">
+        <v>5</v>
+      </c>
+      <c r="E243" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F243" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G243" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H243" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I243" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J243" s="7">
+        <v>0</v>
+      </c>
+      <c r="K243" s="7">
+        <v>1250</v>
+      </c>
       <c r="L243" s="7"/>
       <c r="M243" s="7"/>
       <c r="N243" s="7"/>
@@ -81981,17 +82421,39 @@
       <c r="P243" s="7"/>
     </row>
     <row r="244" spans="1:16" ht="20" customHeight="1">
-      <c r="A244" s="6"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7"/>
-      <c r="I244" s="7"/>
-      <c r="J244" s="7"/>
-      <c r="K244" s="7"/>
+      <c r="A244" s="6">
+        <v>242</v>
+      </c>
+      <c r="B244" s="7">
+        <v>5</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D244" s="7">
+        <v>6</v>
+      </c>
+      <c r="E244" s="7">
+        <v>4320</v>
+      </c>
+      <c r="F244" s="7">
+        <v>4320</v>
+      </c>
+      <c r="G244" s="7">
+        <v>4320</v>
+      </c>
+      <c r="H244" s="7">
+        <v>4320</v>
+      </c>
+      <c r="I244" s="7">
+        <v>4320</v>
+      </c>
+      <c r="J244" s="7">
+        <v>0</v>
+      </c>
+      <c r="K244" s="7">
+        <v>1800</v>
+      </c>
       <c r="L244" s="7"/>
       <c r="M244" s="7"/>
       <c r="N244" s="7"/>
@@ -81999,17 +82461,39 @@
       <c r="P244" s="7"/>
     </row>
     <row r="245" spans="1:16" ht="20" customHeight="1">
-      <c r="A245" s="6"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="7"/>
-      <c r="D245" s="7"/>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7"/>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7"/>
-      <c r="I245" s="7"/>
-      <c r="J245" s="7"/>
-      <c r="K245" s="7"/>
+      <c r="A245" s="6">
+        <v>243</v>
+      </c>
+      <c r="B245" s="7">
+        <v>6</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D245" s="7">
+        <v>7</v>
+      </c>
+      <c r="E245" s="7">
+        <v>5880</v>
+      </c>
+      <c r="F245" s="7">
+        <v>5880</v>
+      </c>
+      <c r="G245" s="7">
+        <v>5880</v>
+      </c>
+      <c r="H245" s="7">
+        <v>5880</v>
+      </c>
+      <c r="I245" s="7">
+        <v>5880</v>
+      </c>
+      <c r="J245" s="7">
+        <v>0</v>
+      </c>
+      <c r="K245" s="7">
+        <v>2450</v>
+      </c>
       <c r="L245" s="7"/>
       <c r="M245" s="7"/>
       <c r="N245" s="7"/>
@@ -82017,17 +82501,39 @@
       <c r="P245" s="7"/>
     </row>
     <row r="246" spans="1:16" ht="20" customHeight="1">
-      <c r="A246" s="6"/>
-      <c r="B246" s="7"/>
-      <c r="C246" s="7"/>
-      <c r="D246" s="7"/>
-      <c r="E246" s="7"/>
-      <c r="F246" s="7"/>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7"/>
-      <c r="I246" s="7"/>
-      <c r="J246" s="7"/>
-      <c r="K246" s="7"/>
+      <c r="A246" s="6">
+        <v>244</v>
+      </c>
+      <c r="B246" s="7">
+        <v>7</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D246" s="7">
+        <v>8</v>
+      </c>
+      <c r="E246" s="7">
+        <v>7680</v>
+      </c>
+      <c r="F246" s="7">
+        <v>7680</v>
+      </c>
+      <c r="G246" s="7">
+        <v>7680</v>
+      </c>
+      <c r="H246" s="7">
+        <v>7680</v>
+      </c>
+      <c r="I246" s="7">
+        <v>7680</v>
+      </c>
+      <c r="J246" s="7">
+        <v>0</v>
+      </c>
+      <c r="K246" s="7">
+        <v>3200</v>
+      </c>
       <c r="L246" s="7"/>
       <c r="M246" s="7"/>
       <c r="N246" s="7"/>
@@ -82035,17 +82541,39 @@
       <c r="P246" s="7"/>
     </row>
     <row r="247" spans="1:16" ht="20" customHeight="1">
-      <c r="A247" s="6"/>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7"/>
-      <c r="G247" s="7"/>
-      <c r="H247" s="7"/>
-      <c r="I247" s="7"/>
-      <c r="J247" s="7"/>
-      <c r="K247" s="7"/>
+      <c r="A247" s="6">
+        <v>245</v>
+      </c>
+      <c r="B247" s="7">
+        <v>8</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D247" s="7">
+        <v>9</v>
+      </c>
+      <c r="E247" s="7">
+        <v>9720</v>
+      </c>
+      <c r="F247" s="7">
+        <v>9720</v>
+      </c>
+      <c r="G247" s="7">
+        <v>9720</v>
+      </c>
+      <c r="H247" s="7">
+        <v>9720</v>
+      </c>
+      <c r="I247" s="7">
+        <v>9720</v>
+      </c>
+      <c r="J247" s="7">
+        <v>0</v>
+      </c>
+      <c r="K247" s="7">
+        <v>4050</v>
+      </c>
       <c r="L247" s="7"/>
       <c r="M247" s="7"/>
       <c r="N247" s="7"/>
@@ -82053,17 +82581,39 @@
       <c r="P247" s="7"/>
     </row>
     <row r="248" spans="1:16" ht="20" customHeight="1">
-      <c r="A248" s="6"/>
-      <c r="B248" s="7"/>
-      <c r="C248" s="7"/>
-      <c r="D248" s="7"/>
-      <c r="E248" s="7"/>
-      <c r="F248" s="7"/>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7"/>
-      <c r="I248" s="7"/>
-      <c r="J248" s="7"/>
-      <c r="K248" s="7"/>
+      <c r="A248" s="6">
+        <v>246</v>
+      </c>
+      <c r="B248" s="7">
+        <v>9</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D248" s="7">
+        <v>10</v>
+      </c>
+      <c r="E248" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F248" s="7">
+        <v>12000</v>
+      </c>
+      <c r="G248" s="7">
+        <v>12000</v>
+      </c>
+      <c r="H248" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I248" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J248" s="7">
+        <v>0</v>
+      </c>
+      <c r="K248" s="7">
+        <v>5000</v>
+      </c>
       <c r="L248" s="7"/>
       <c r="M248" s="7"/>
       <c r="N248" s="7"/>
@@ -82071,17 +82621,39 @@
       <c r="P248" s="7"/>
     </row>
     <row r="249" spans="1:16" ht="20" customHeight="1">
-      <c r="A249" s="6"/>
-      <c r="B249" s="7"/>
-      <c r="C249" s="7"/>
-      <c r="D249" s="7"/>
-      <c r="E249" s="7"/>
-      <c r="F249" s="7"/>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7"/>
-      <c r="I249" s="7"/>
-      <c r="J249" s="7"/>
-      <c r="K249" s="7"/>
+      <c r="A249" s="6">
+        <v>247</v>
+      </c>
+      <c r="B249" s="7">
+        <v>10</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D249" s="7">
+        <v>11</v>
+      </c>
+      <c r="E249" s="7">
+        <v>14520</v>
+      </c>
+      <c r="F249" s="7">
+        <v>14520</v>
+      </c>
+      <c r="G249" s="7">
+        <v>14520</v>
+      </c>
+      <c r="H249" s="7">
+        <v>14520</v>
+      </c>
+      <c r="I249" s="7">
+        <v>14520</v>
+      </c>
+      <c r="J249" s="7">
+        <v>0</v>
+      </c>
+      <c r="K249" s="7">
+        <v>6050</v>
+      </c>
       <c r="L249" s="7"/>
       <c r="M249" s="7"/>
       <c r="N249" s="7"/>
@@ -82089,17 +82661,39 @@
       <c r="P249" s="7"/>
     </row>
     <row r="250" spans="1:16" ht="20" customHeight="1">
-      <c r="A250" s="6"/>
-      <c r="B250" s="7"/>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
+      <c r="A250" s="6">
+        <v>248</v>
+      </c>
+      <c r="B250" s="7">
+        <v>11</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D250" s="7">
+        <v>12</v>
+      </c>
+      <c r="E250" s="7">
+        <v>17280</v>
+      </c>
+      <c r="F250" s="7">
+        <v>17280</v>
+      </c>
+      <c r="G250" s="7">
+        <v>17280</v>
+      </c>
+      <c r="H250" s="7">
+        <v>17280</v>
+      </c>
+      <c r="I250" s="7">
+        <v>17280</v>
+      </c>
+      <c r="J250" s="7">
+        <v>0</v>
+      </c>
+      <c r="K250" s="7">
+        <v>7200</v>
+      </c>
       <c r="L250" s="7"/>
       <c r="M250" s="7"/>
       <c r="N250" s="7"/>
@@ -82107,17 +82701,39 @@
       <c r="P250" s="7"/>
     </row>
     <row r="251" spans="1:16" ht="20" customHeight="1">
-      <c r="A251" s="6"/>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
+      <c r="A251" s="6">
+        <v>249</v>
+      </c>
+      <c r="B251" s="7">
+        <v>12</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D251" s="7">
+        <v>13</v>
+      </c>
+      <c r="E251" s="7">
+        <v>20280</v>
+      </c>
+      <c r="F251" s="7">
+        <v>20280</v>
+      </c>
+      <c r="G251" s="7">
+        <v>20280</v>
+      </c>
+      <c r="H251" s="7">
+        <v>20280</v>
+      </c>
+      <c r="I251" s="7">
+        <v>20280</v>
+      </c>
+      <c r="J251" s="7">
+        <v>0</v>
+      </c>
+      <c r="K251" s="7">
+        <v>8450</v>
+      </c>
       <c r="L251" s="7"/>
       <c r="M251" s="7"/>
       <c r="N251" s="7"/>
@@ -82125,17 +82741,39 @@
       <c r="P251" s="7"/>
     </row>
     <row r="252" spans="1:16" ht="20" customHeight="1">
-      <c r="A252" s="6"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
+      <c r="A252" s="6">
+        <v>250</v>
+      </c>
+      <c r="B252" s="7">
+        <v>13</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D252" s="7">
+        <v>14</v>
+      </c>
+      <c r="E252" s="7">
+        <v>23520</v>
+      </c>
+      <c r="F252" s="7">
+        <v>23520</v>
+      </c>
+      <c r="G252" s="7">
+        <v>23520</v>
+      </c>
+      <c r="H252" s="7">
+        <v>23520</v>
+      </c>
+      <c r="I252" s="7">
+        <v>23520</v>
+      </c>
+      <c r="J252" s="7">
+        <v>0</v>
+      </c>
+      <c r="K252" s="7">
+        <v>9800</v>
+      </c>
       <c r="L252" s="7"/>
       <c r="M252" s="7"/>
       <c r="N252" s="7"/>
@@ -82143,22 +82781,1416 @@
       <c r="P252" s="7"/>
     </row>
     <row r="253" spans="1:16" ht="20" customHeight="1">
-      <c r="A253" s="6"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="7"/>
-      <c r="D253" s="7"/>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-      <c r="I253" s="7"/>
-      <c r="J253" s="7"/>
-      <c r="K253" s="7"/>
+      <c r="A253" s="6">
+        <v>251</v>
+      </c>
+      <c r="B253" s="7">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D253" s="7">
+        <v>15</v>
+      </c>
+      <c r="E253" s="7">
+        <v>27000</v>
+      </c>
+      <c r="F253" s="7">
+        <v>27000</v>
+      </c>
+      <c r="G253" s="7">
+        <v>27000</v>
+      </c>
+      <c r="H253" s="7">
+        <v>27000</v>
+      </c>
+      <c r="I253" s="7">
+        <v>27000</v>
+      </c>
+      <c r="J253" s="7">
+        <v>0</v>
+      </c>
+      <c r="K253" s="7">
+        <v>11250</v>
+      </c>
       <c r="L253" s="7"/>
       <c r="M253" s="7"/>
       <c r="N253" s="7"/>
       <c r="O253" s="7"/>
       <c r="P253" s="7"/>
+    </row>
+    <row r="254" spans="1:16" ht="20" customHeight="1">
+      <c r="A254" s="6">
+        <v>252</v>
+      </c>
+      <c r="B254" s="7">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D254" s="7">
+        <v>2</v>
+      </c>
+      <c r="E254" s="7">
+        <v>480</v>
+      </c>
+      <c r="F254" s="7">
+        <v>480</v>
+      </c>
+      <c r="G254" s="7">
+        <v>480</v>
+      </c>
+      <c r="H254" s="7">
+        <v>480</v>
+      </c>
+      <c r="I254" s="7">
+        <v>480</v>
+      </c>
+      <c r="J254" s="7">
+        <v>0</v>
+      </c>
+      <c r="K254" s="7">
+        <v>200</v>
+      </c>
+      <c r="L254" s="7"/>
+      <c r="M254" s="7"/>
+      <c r="N254" s="7"/>
+      <c r="O254" s="7"/>
+      <c r="P254" s="7"/>
+    </row>
+    <row r="255" spans="1:16" ht="20" customHeight="1">
+      <c r="A255" s="6">
+        <v>253</v>
+      </c>
+      <c r="B255" s="7">
+        <v>2</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D255" s="7">
+        <v>3</v>
+      </c>
+      <c r="E255" s="7">
+        <v>1080</v>
+      </c>
+      <c r="F255" s="7">
+        <v>1080</v>
+      </c>
+      <c r="G255" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H255" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I255" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J255" s="7">
+        <v>0</v>
+      </c>
+      <c r="K255" s="7">
+        <v>450</v>
+      </c>
+      <c r="L255" s="7"/>
+      <c r="M255" s="7"/>
+      <c r="N255" s="7"/>
+      <c r="O255" s="7"/>
+      <c r="P255" s="7"/>
+    </row>
+    <row r="256" spans="1:16" ht="20" customHeight="1">
+      <c r="A256" s="6">
+        <v>254</v>
+      </c>
+      <c r="B256" s="7">
+        <v>3</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D256" s="7">
+        <v>4</v>
+      </c>
+      <c r="E256" s="7">
+        <v>1920</v>
+      </c>
+      <c r="F256" s="7">
+        <v>1920</v>
+      </c>
+      <c r="G256" s="7">
+        <v>1920</v>
+      </c>
+      <c r="H256" s="7">
+        <v>1920</v>
+      </c>
+      <c r="I256" s="7">
+        <v>1920</v>
+      </c>
+      <c r="J256" s="7">
+        <v>0</v>
+      </c>
+      <c r="K256" s="7">
+        <v>800</v>
+      </c>
+      <c r="L256" s="7"/>
+      <c r="M256" s="7"/>
+      <c r="N256" s="7"/>
+      <c r="O256" s="7"/>
+      <c r="P256" s="7"/>
+    </row>
+    <row r="257" spans="1:16" ht="20" customHeight="1">
+      <c r="A257" s="6">
+        <v>255</v>
+      </c>
+      <c r="B257" s="7">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D257" s="7">
+        <v>5</v>
+      </c>
+      <c r="E257" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F257" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G257" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H257" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I257" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J257" s="7">
+        <v>0</v>
+      </c>
+      <c r="K257" s="7">
+        <v>1250</v>
+      </c>
+      <c r="L257" s="7"/>
+      <c r="M257" s="7"/>
+      <c r="N257" s="7"/>
+      <c r="O257" s="7"/>
+      <c r="P257" s="7"/>
+    </row>
+    <row r="258" spans="1:16" ht="20" customHeight="1">
+      <c r="A258" s="6">
+        <v>256</v>
+      </c>
+      <c r="B258" s="7">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D258" s="7">
+        <v>6</v>
+      </c>
+      <c r="E258" s="7">
+        <v>4320</v>
+      </c>
+      <c r="F258" s="7">
+        <v>4320</v>
+      </c>
+      <c r="G258" s="7">
+        <v>4320</v>
+      </c>
+      <c r="H258" s="7">
+        <v>4320</v>
+      </c>
+      <c r="I258" s="7">
+        <v>4320</v>
+      </c>
+      <c r="J258" s="7">
+        <v>0</v>
+      </c>
+      <c r="K258" s="7">
+        <v>1800</v>
+      </c>
+      <c r="L258" s="7"/>
+      <c r="M258" s="7"/>
+      <c r="N258" s="7"/>
+      <c r="O258" s="7"/>
+      <c r="P258" s="7"/>
+    </row>
+    <row r="259" spans="1:16" ht="20" customHeight="1">
+      <c r="A259" s="6">
+        <v>257</v>
+      </c>
+      <c r="B259" s="7">
+        <v>6</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D259" s="7">
+        <v>7</v>
+      </c>
+      <c r="E259" s="7">
+        <v>5880</v>
+      </c>
+      <c r="F259" s="7">
+        <v>5880</v>
+      </c>
+      <c r="G259" s="7">
+        <v>5880</v>
+      </c>
+      <c r="H259" s="7">
+        <v>5880</v>
+      </c>
+      <c r="I259" s="7">
+        <v>5880</v>
+      </c>
+      <c r="J259" s="7">
+        <v>0</v>
+      </c>
+      <c r="K259" s="7">
+        <v>2450</v>
+      </c>
+      <c r="L259" s="7"/>
+      <c r="M259" s="7"/>
+      <c r="N259" s="7"/>
+      <c r="O259" s="7"/>
+      <c r="P259" s="7"/>
+    </row>
+    <row r="260" spans="1:16" ht="20" customHeight="1">
+      <c r="A260" s="6">
+        <v>258</v>
+      </c>
+      <c r="B260" s="7">
+        <v>7</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D260" s="7">
+        <v>8</v>
+      </c>
+      <c r="E260" s="7">
+        <v>7680</v>
+      </c>
+      <c r="F260" s="7">
+        <v>7680</v>
+      </c>
+      <c r="G260" s="7">
+        <v>7680</v>
+      </c>
+      <c r="H260" s="7">
+        <v>7680</v>
+      </c>
+      <c r="I260" s="7">
+        <v>7680</v>
+      </c>
+      <c r="J260" s="7">
+        <v>0</v>
+      </c>
+      <c r="K260" s="7">
+        <v>3200</v>
+      </c>
+      <c r="L260" s="7"/>
+      <c r="M260" s="7"/>
+      <c r="N260" s="7"/>
+      <c r="O260" s="7"/>
+      <c r="P260" s="7"/>
+    </row>
+    <row r="261" spans="1:16" ht="20" customHeight="1">
+      <c r="A261" s="6">
+        <v>259</v>
+      </c>
+      <c r="B261" s="7">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D261" s="7">
+        <v>9</v>
+      </c>
+      <c r="E261" s="7">
+        <v>9720</v>
+      </c>
+      <c r="F261" s="7">
+        <v>9720</v>
+      </c>
+      <c r="G261" s="7">
+        <v>9720</v>
+      </c>
+      <c r="H261" s="7">
+        <v>9720</v>
+      </c>
+      <c r="I261" s="7">
+        <v>9720</v>
+      </c>
+      <c r="J261" s="7">
+        <v>0</v>
+      </c>
+      <c r="K261" s="7">
+        <v>4050</v>
+      </c>
+      <c r="L261" s="7"/>
+      <c r="M261" s="7"/>
+      <c r="N261" s="7"/>
+      <c r="O261" s="7"/>
+      <c r="P261" s="7"/>
+    </row>
+    <row r="262" spans="1:16" ht="20" customHeight="1">
+      <c r="A262" s="6">
+        <v>260</v>
+      </c>
+      <c r="B262" s="7">
+        <v>9</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D262" s="7">
+        <v>10</v>
+      </c>
+      <c r="E262" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F262" s="7">
+        <v>12000</v>
+      </c>
+      <c r="G262" s="7">
+        <v>12000</v>
+      </c>
+      <c r="H262" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I262" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J262" s="7">
+        <v>0</v>
+      </c>
+      <c r="K262" s="7">
+        <v>5000</v>
+      </c>
+      <c r="L262" s="7"/>
+      <c r="M262" s="7"/>
+      <c r="N262" s="7"/>
+      <c r="O262" s="7"/>
+      <c r="P262" s="7"/>
+    </row>
+    <row r="263" spans="1:16" ht="20" customHeight="1">
+      <c r="A263" s="6">
+        <v>261</v>
+      </c>
+      <c r="B263" s="7">
+        <v>10</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D263" s="7">
+        <v>11</v>
+      </c>
+      <c r="E263" s="7">
+        <v>14520</v>
+      </c>
+      <c r="F263" s="7">
+        <v>14520</v>
+      </c>
+      <c r="G263" s="7">
+        <v>14520</v>
+      </c>
+      <c r="H263" s="7">
+        <v>14520</v>
+      </c>
+      <c r="I263" s="7">
+        <v>14520</v>
+      </c>
+      <c r="J263" s="7">
+        <v>0</v>
+      </c>
+      <c r="K263" s="7">
+        <v>6050</v>
+      </c>
+      <c r="L263" s="7"/>
+      <c r="M263" s="7"/>
+      <c r="N263" s="7"/>
+      <c r="O263" s="7"/>
+      <c r="P263" s="7"/>
+    </row>
+    <row r="264" spans="1:16" ht="20" customHeight="1">
+      <c r="A264" s="6">
+        <v>262</v>
+      </c>
+      <c r="B264" s="7">
+        <v>11</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D264" s="7">
+        <v>12</v>
+      </c>
+      <c r="E264" s="7">
+        <v>17280</v>
+      </c>
+      <c r="F264" s="7">
+        <v>17280</v>
+      </c>
+      <c r="G264" s="7">
+        <v>17280</v>
+      </c>
+      <c r="H264" s="7">
+        <v>17280</v>
+      </c>
+      <c r="I264" s="7">
+        <v>17280</v>
+      </c>
+      <c r="J264" s="7">
+        <v>0</v>
+      </c>
+      <c r="K264" s="7">
+        <v>7200</v>
+      </c>
+      <c r="L264" s="7"/>
+      <c r="M264" s="7"/>
+      <c r="N264" s="7"/>
+      <c r="O264" s="7"/>
+      <c r="P264" s="7"/>
+    </row>
+    <row r="265" spans="1:16" ht="20" customHeight="1">
+      <c r="A265" s="6">
+        <v>263</v>
+      </c>
+      <c r="B265" s="7">
+        <v>12</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D265" s="7">
+        <v>13</v>
+      </c>
+      <c r="E265" s="7">
+        <v>20280</v>
+      </c>
+      <c r="F265" s="7">
+        <v>20280</v>
+      </c>
+      <c r="G265" s="7">
+        <v>20280</v>
+      </c>
+      <c r="H265" s="7">
+        <v>20280</v>
+      </c>
+      <c r="I265" s="7">
+        <v>20280</v>
+      </c>
+      <c r="J265" s="7">
+        <v>0</v>
+      </c>
+      <c r="K265" s="7">
+        <v>8450</v>
+      </c>
+      <c r="L265" s="7"/>
+      <c r="M265" s="7"/>
+      <c r="N265" s="7"/>
+      <c r="O265" s="7"/>
+      <c r="P265" s="7"/>
+    </row>
+    <row r="266" spans="1:16" ht="20" customHeight="1">
+      <c r="A266" s="6">
+        <v>264</v>
+      </c>
+      <c r="B266" s="7">
+        <v>13</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D266" s="7">
+        <v>14</v>
+      </c>
+      <c r="E266" s="7">
+        <v>23520</v>
+      </c>
+      <c r="F266" s="7">
+        <v>23520</v>
+      </c>
+      <c r="G266" s="7">
+        <v>23520</v>
+      </c>
+      <c r="H266" s="7">
+        <v>23520</v>
+      </c>
+      <c r="I266" s="7">
+        <v>23520</v>
+      </c>
+      <c r="J266" s="7">
+        <v>0</v>
+      </c>
+      <c r="K266" s="7">
+        <v>9800</v>
+      </c>
+      <c r="L266" s="7"/>
+      <c r="M266" s="7"/>
+      <c r="N266" s="7"/>
+      <c r="O266" s="7"/>
+      <c r="P266" s="7"/>
+    </row>
+    <row r="267" spans="1:16" ht="20" customHeight="1">
+      <c r="A267" s="6">
+        <v>265</v>
+      </c>
+      <c r="B267" s="7">
+        <v>14</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D267" s="7">
+        <v>15</v>
+      </c>
+      <c r="E267" s="7">
+        <v>27000</v>
+      </c>
+      <c r="F267" s="7">
+        <v>27000</v>
+      </c>
+      <c r="G267" s="7">
+        <v>27000</v>
+      </c>
+      <c r="H267" s="7">
+        <v>27000</v>
+      </c>
+      <c r="I267" s="7">
+        <v>27000</v>
+      </c>
+      <c r="J267" s="7">
+        <v>0</v>
+      </c>
+      <c r="K267" s="7">
+        <v>11250</v>
+      </c>
+      <c r="L267" s="7"/>
+      <c r="M267" s="7"/>
+      <c r="N267" s="7"/>
+      <c r="O267" s="7"/>
+      <c r="P267" s="7"/>
+    </row>
+    <row r="268" spans="1:16" ht="20" customHeight="1">
+      <c r="A268" s="6">
+        <v>266</v>
+      </c>
+      <c r="B268" s="7">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D268" s="7">
+        <v>2</v>
+      </c>
+      <c r="E268" s="7">
+        <v>480</v>
+      </c>
+      <c r="F268" s="7">
+        <v>480</v>
+      </c>
+      <c r="G268" s="7">
+        <v>480</v>
+      </c>
+      <c r="H268" s="7">
+        <v>480</v>
+      </c>
+      <c r="I268" s="7">
+        <v>480</v>
+      </c>
+      <c r="J268" s="7">
+        <v>0</v>
+      </c>
+      <c r="K268" s="7">
+        <v>200</v>
+      </c>
+      <c r="L268" s="7"/>
+      <c r="M268" s="7"/>
+      <c r="N268" s="7"/>
+      <c r="O268" s="7"/>
+      <c r="P268" s="7"/>
+    </row>
+    <row r="269" spans="1:16" ht="20" customHeight="1">
+      <c r="A269" s="6">
+        <v>267</v>
+      </c>
+      <c r="B269" s="7">
+        <v>2</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D269" s="7">
+        <v>3</v>
+      </c>
+      <c r="E269" s="7">
+        <v>1080</v>
+      </c>
+      <c r="F269" s="7">
+        <v>1080</v>
+      </c>
+      <c r="G269" s="7">
+        <v>1080</v>
+      </c>
+      <c r="H269" s="7">
+        <v>1080</v>
+      </c>
+      <c r="I269" s="7">
+        <v>1080</v>
+      </c>
+      <c r="J269" s="7">
+        <v>0</v>
+      </c>
+      <c r="K269" s="7">
+        <v>450</v>
+      </c>
+      <c r="L269" s="7"/>
+      <c r="M269" s="7"/>
+      <c r="N269" s="7"/>
+      <c r="O269" s="7"/>
+      <c r="P269" s="7"/>
+    </row>
+    <row r="270" spans="1:16" ht="20" customHeight="1">
+      <c r="A270" s="6">
+        <v>268</v>
+      </c>
+      <c r="B270" s="7">
+        <v>3</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D270" s="7">
+        <v>4</v>
+      </c>
+      <c r="E270" s="7">
+        <v>1920</v>
+      </c>
+      <c r="F270" s="7">
+        <v>1920</v>
+      </c>
+      <c r="G270" s="7">
+        <v>1920</v>
+      </c>
+      <c r="H270" s="7">
+        <v>1920</v>
+      </c>
+      <c r="I270" s="7">
+        <v>1920</v>
+      </c>
+      <c r="J270" s="7">
+        <v>0</v>
+      </c>
+      <c r="K270" s="7">
+        <v>800</v>
+      </c>
+      <c r="L270" s="7"/>
+      <c r="M270" s="7"/>
+      <c r="N270" s="7"/>
+      <c r="O270" s="7"/>
+      <c r="P270" s="7"/>
+    </row>
+    <row r="271" spans="1:16" ht="20" customHeight="1">
+      <c r="A271" s="6">
+        <v>269</v>
+      </c>
+      <c r="B271" s="7">
+        <v>4</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D271" s="7">
+        <v>5</v>
+      </c>
+      <c r="E271" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F271" s="7">
+        <v>3000</v>
+      </c>
+      <c r="G271" s="7">
+        <v>3000</v>
+      </c>
+      <c r="H271" s="7">
+        <v>3000</v>
+      </c>
+      <c r="I271" s="7">
+        <v>3000</v>
+      </c>
+      <c r="J271" s="7">
+        <v>0</v>
+      </c>
+      <c r="K271" s="7">
+        <v>1250</v>
+      </c>
+      <c r="L271" s="7"/>
+      <c r="M271" s="7"/>
+      <c r="N271" s="7"/>
+      <c r="O271" s="7"/>
+      <c r="P271" s="7"/>
+    </row>
+    <row r="272" spans="1:16" ht="20" customHeight="1">
+      <c r="A272" s="6">
+        <v>270</v>
+      </c>
+      <c r="B272" s="7">
+        <v>5</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D272" s="7">
+        <v>6</v>
+      </c>
+      <c r="E272" s="7">
+        <v>4320</v>
+      </c>
+      <c r="F272" s="7">
+        <v>4320</v>
+      </c>
+      <c r="G272" s="7">
+        <v>4320</v>
+      </c>
+      <c r="H272" s="7">
+        <v>4320</v>
+      </c>
+      <c r="I272" s="7">
+        <v>4320</v>
+      </c>
+      <c r="J272" s="7">
+        <v>0</v>
+      </c>
+      <c r="K272" s="7">
+        <v>1800</v>
+      </c>
+      <c r="L272" s="7"/>
+      <c r="M272" s="7"/>
+      <c r="N272" s="7"/>
+      <c r="O272" s="7"/>
+      <c r="P272" s="7"/>
+    </row>
+    <row r="273" spans="1:16" ht="20" customHeight="1">
+      <c r="A273" s="6">
+        <v>271</v>
+      </c>
+      <c r="B273" s="7">
+        <v>6</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D273" s="7">
+        <v>7</v>
+      </c>
+      <c r="E273" s="7">
+        <v>5880</v>
+      </c>
+      <c r="F273" s="7">
+        <v>5880</v>
+      </c>
+      <c r="G273" s="7">
+        <v>5880</v>
+      </c>
+      <c r="H273" s="7">
+        <v>5880</v>
+      </c>
+      <c r="I273" s="7">
+        <v>5880</v>
+      </c>
+      <c r="J273" s="7">
+        <v>0</v>
+      </c>
+      <c r="K273" s="7">
+        <v>2450</v>
+      </c>
+      <c r="L273" s="7"/>
+      <c r="M273" s="7"/>
+      <c r="N273" s="7"/>
+      <c r="O273" s="7"/>
+      <c r="P273" s="7"/>
+    </row>
+    <row r="274" spans="1:16" ht="20" customHeight="1">
+      <c r="A274" s="6">
+        <v>272</v>
+      </c>
+      <c r="B274" s="7">
+        <v>7</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D274" s="7">
+        <v>8</v>
+      </c>
+      <c r="E274" s="7">
+        <v>7680</v>
+      </c>
+      <c r="F274" s="7">
+        <v>7680</v>
+      </c>
+      <c r="G274" s="7">
+        <v>7680</v>
+      </c>
+      <c r="H274" s="7">
+        <v>7680</v>
+      </c>
+      <c r="I274" s="7">
+        <v>7680</v>
+      </c>
+      <c r="J274" s="7">
+        <v>0</v>
+      </c>
+      <c r="K274" s="7">
+        <v>3200</v>
+      </c>
+      <c r="L274" s="7"/>
+      <c r="M274" s="7"/>
+      <c r="N274" s="7"/>
+      <c r="O274" s="7"/>
+      <c r="P274" s="7"/>
+    </row>
+    <row r="275" spans="1:16" ht="20" customHeight="1">
+      <c r="A275" s="6">
+        <v>273</v>
+      </c>
+      <c r="B275" s="7">
+        <v>8</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D275" s="7">
+        <v>9</v>
+      </c>
+      <c r="E275" s="7">
+        <v>9720</v>
+      </c>
+      <c r="F275" s="7">
+        <v>9720</v>
+      </c>
+      <c r="G275" s="7">
+        <v>9720</v>
+      </c>
+      <c r="H275" s="7">
+        <v>9720</v>
+      </c>
+      <c r="I275" s="7">
+        <v>9720</v>
+      </c>
+      <c r="J275" s="7">
+        <v>0</v>
+      </c>
+      <c r="K275" s="7">
+        <v>4050</v>
+      </c>
+      <c r="L275" s="7"/>
+      <c r="M275" s="7"/>
+      <c r="N275" s="7"/>
+      <c r="O275" s="7"/>
+      <c r="P275" s="7"/>
+    </row>
+    <row r="276" spans="1:16" ht="20" customHeight="1">
+      <c r="A276" s="6">
+        <v>274</v>
+      </c>
+      <c r="B276" s="7">
+        <v>9</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D276" s="7">
+        <v>10</v>
+      </c>
+      <c r="E276" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F276" s="7">
+        <v>12000</v>
+      </c>
+      <c r="G276" s="7">
+        <v>12000</v>
+      </c>
+      <c r="H276" s="7">
+        <v>12000</v>
+      </c>
+      <c r="I276" s="7">
+        <v>12000</v>
+      </c>
+      <c r="J276" s="7">
+        <v>0</v>
+      </c>
+      <c r="K276" s="7">
+        <v>5000</v>
+      </c>
+      <c r="L276" s="7"/>
+      <c r="M276" s="7"/>
+      <c r="N276" s="7"/>
+      <c r="O276" s="7"/>
+      <c r="P276" s="7"/>
+    </row>
+    <row r="277" spans="1:16" ht="20" customHeight="1">
+      <c r="A277" s="6">
+        <v>275</v>
+      </c>
+      <c r="B277" s="7">
+        <v>10</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D277" s="7">
+        <v>11</v>
+      </c>
+      <c r="E277" s="7">
+        <v>14520</v>
+      </c>
+      <c r="F277" s="7">
+        <v>14520</v>
+      </c>
+      <c r="G277" s="7">
+        <v>14520</v>
+      </c>
+      <c r="H277" s="7">
+        <v>14520</v>
+      </c>
+      <c r="I277" s="7">
+        <v>14520</v>
+      </c>
+      <c r="J277" s="7">
+        <v>0</v>
+      </c>
+      <c r="K277" s="7">
+        <v>6050</v>
+      </c>
+      <c r="L277" s="7"/>
+      <c r="M277" s="7"/>
+      <c r="N277" s="7"/>
+      <c r="O277" s="7"/>
+      <c r="P277" s="7"/>
+    </row>
+    <row r="278" spans="1:16" ht="20" customHeight="1">
+      <c r="A278" s="6">
+        <v>276</v>
+      </c>
+      <c r="B278" s="7">
+        <v>11</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D278" s="7">
+        <v>12</v>
+      </c>
+      <c r="E278" s="7">
+        <v>17280</v>
+      </c>
+      <c r="F278" s="7">
+        <v>17280</v>
+      </c>
+      <c r="G278" s="7">
+        <v>17280</v>
+      </c>
+      <c r="H278" s="7">
+        <v>17280</v>
+      </c>
+      <c r="I278" s="7">
+        <v>17280</v>
+      </c>
+      <c r="J278" s="7">
+        <v>0</v>
+      </c>
+      <c r="K278" s="7">
+        <v>7200</v>
+      </c>
+      <c r="L278" s="7"/>
+      <c r="M278" s="7"/>
+      <c r="N278" s="7"/>
+      <c r="O278" s="7"/>
+      <c r="P278" s="7"/>
+    </row>
+    <row r="279" spans="1:16" ht="20" customHeight="1">
+      <c r="A279" s="6">
+        <v>277</v>
+      </c>
+      <c r="B279" s="7">
+        <v>12</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D279" s="7">
+        <v>13</v>
+      </c>
+      <c r="E279" s="7">
+        <v>20280</v>
+      </c>
+      <c r="F279" s="7">
+        <v>20280</v>
+      </c>
+      <c r="G279" s="7">
+        <v>20280</v>
+      </c>
+      <c r="H279" s="7">
+        <v>20280</v>
+      </c>
+      <c r="I279" s="7">
+        <v>20280</v>
+      </c>
+      <c r="J279" s="7">
+        <v>0</v>
+      </c>
+      <c r="K279" s="7">
+        <v>8450</v>
+      </c>
+      <c r="L279" s="7"/>
+      <c r="M279" s="7"/>
+      <c r="N279" s="7"/>
+      <c r="O279" s="7"/>
+      <c r="P279" s="7"/>
+    </row>
+    <row r="280" spans="1:16" ht="20" customHeight="1">
+      <c r="A280" s="6">
+        <v>278</v>
+      </c>
+      <c r="B280" s="7">
+        <v>13</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D280" s="7">
+        <v>14</v>
+      </c>
+      <c r="E280" s="7">
+        <v>23520</v>
+      </c>
+      <c r="F280" s="7">
+        <v>23520</v>
+      </c>
+      <c r="G280" s="7">
+        <v>23520</v>
+      </c>
+      <c r="H280" s="7">
+        <v>23520</v>
+      </c>
+      <c r="I280" s="7">
+        <v>23520</v>
+      </c>
+      <c r="J280" s="7">
+        <v>0</v>
+      </c>
+      <c r="K280" s="7">
+        <v>9800</v>
+      </c>
+      <c r="L280" s="7"/>
+      <c r="M280" s="7"/>
+      <c r="N280" s="7"/>
+      <c r="O280" s="7"/>
+      <c r="P280" s="7"/>
+    </row>
+    <row r="281" spans="1:16" ht="20" customHeight="1">
+      <c r="A281" s="6">
+        <v>279</v>
+      </c>
+      <c r="B281" s="7">
+        <v>14</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D281" s="7">
+        <v>15</v>
+      </c>
+      <c r="E281" s="7">
+        <v>27000</v>
+      </c>
+      <c r="F281" s="7">
+        <v>27000</v>
+      </c>
+      <c r="G281" s="7">
+        <v>27000</v>
+      </c>
+      <c r="H281" s="7">
+        <v>27000</v>
+      </c>
+      <c r="I281" s="7">
+        <v>27000</v>
+      </c>
+      <c r="J281" s="7">
+        <v>0</v>
+      </c>
+      <c r="K281" s="7">
+        <v>11250</v>
+      </c>
+      <c r="L281" s="7"/>
+      <c r="M281" s="7"/>
+      <c r="N281" s="7"/>
+      <c r="O281" s="7"/>
+      <c r="P281" s="7"/>
+    </row>
+    <row r="282" spans="1:16" ht="20" customHeight="1">
+      <c r="A282" s="6"/>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
+      <c r="F282" s="7"/>
+      <c r="G282" s="7"/>
+      <c r="H282" s="7"/>
+      <c r="I282" s="7"/>
+      <c r="J282" s="7"/>
+      <c r="K282" s="7"/>
+      <c r="L282" s="7"/>
+      <c r="M282" s="7"/>
+      <c r="N282" s="7"/>
+      <c r="O282" s="7"/>
+      <c r="P282" s="7"/>
+    </row>
+    <row r="283" spans="1:16" ht="20" customHeight="1">
+      <c r="A283" s="6"/>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+      <c r="F283" s="7"/>
+      <c r="G283" s="7"/>
+      <c r="H283" s="7"/>
+      <c r="I283" s="7"/>
+      <c r="J283" s="7"/>
+      <c r="K283" s="7"/>
+      <c r="L283" s="7"/>
+      <c r="M283" s="7"/>
+      <c r="N283" s="7"/>
+      <c r="O283" s="7"/>
+      <c r="P283" s="7"/>
+    </row>
+    <row r="284" spans="1:16" ht="20" customHeight="1">
+      <c r="A284" s="6"/>
+      <c r="B284" s="7"/>
+      <c r="C284" s="7"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="7"/>
+      <c r="F284" s="7"/>
+      <c r="G284" s="7"/>
+      <c r="H284" s="7"/>
+      <c r="I284" s="7"/>
+      <c r="J284" s="7"/>
+      <c r="K284" s="7"/>
+      <c r="L284" s="7"/>
+      <c r="M284" s="7"/>
+      <c r="N284" s="7"/>
+      <c r="O284" s="7"/>
+      <c r="P284" s="7"/>
+    </row>
+    <row r="285" spans="1:16" ht="20" customHeight="1">
+      <c r="A285" s="6"/>
+      <c r="B285" s="7"/>
+      <c r="C285" s="7"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7"/>
+      <c r="G285" s="7"/>
+      <c r="H285" s="7"/>
+      <c r="I285" s="7"/>
+      <c r="J285" s="7"/>
+      <c r="K285" s="7"/>
+      <c r="L285" s="7"/>
+      <c r="M285" s="7"/>
+      <c r="N285" s="7"/>
+      <c r="O285" s="7"/>
+      <c r="P285" s="7"/>
+    </row>
+    <row r="286" spans="1:16" ht="20" customHeight="1">
+      <c r="A286" s="6"/>
+      <c r="B286" s="7"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="7"/>
+      <c r="H286" s="7"/>
+      <c r="I286" s="7"/>
+      <c r="J286" s="7"/>
+      <c r="K286" s="7"/>
+      <c r="L286" s="7"/>
+      <c r="M286" s="7"/>
+      <c r="N286" s="7"/>
+      <c r="O286" s="7"/>
+      <c r="P286" s="7"/>
+    </row>
+    <row r="287" spans="1:16" ht="20" customHeight="1">
+      <c r="A287" s="6"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7"/>
+      <c r="G287" s="7"/>
+      <c r="H287" s="7"/>
+      <c r="I287" s="7"/>
+      <c r="J287" s="7"/>
+      <c r="K287" s="7"/>
+      <c r="L287" s="7"/>
+      <c r="M287" s="7"/>
+      <c r="N287" s="7"/>
+      <c r="O287" s="7"/>
+      <c r="P287" s="7"/>
+    </row>
+    <row r="288" spans="1:16" ht="20" customHeight="1">
+      <c r="A288" s="6"/>
+      <c r="B288" s="7"/>
+      <c r="C288" s="7"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="7"/>
+      <c r="F288" s="7"/>
+      <c r="G288" s="7"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="7"/>
+      <c r="J288" s="7"/>
+      <c r="K288" s="7"/>
+      <c r="L288" s="7"/>
+      <c r="M288" s="7"/>
+      <c r="N288" s="7"/>
+      <c r="O288" s="7"/>
+      <c r="P288" s="7"/>
+    </row>
+    <row r="289" spans="1:16" ht="20" customHeight="1">
+      <c r="A289" s="6"/>
+      <c r="B289" s="7"/>
+      <c r="C289" s="7"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="7"/>
+      <c r="F289" s="7"/>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7"/>
+      <c r="I289" s="7"/>
+      <c r="J289" s="7"/>
+      <c r="K289" s="7"/>
+      <c r="L289" s="7"/>
+      <c r="M289" s="7"/>
+      <c r="N289" s="7"/>
+      <c r="O289" s="7"/>
+      <c r="P289" s="7"/>
+    </row>
+    <row r="290" spans="1:16" ht="20" customHeight="1">
+      <c r="A290" s="6"/>
+      <c r="B290" s="7"/>
+      <c r="C290" s="7"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="7"/>
+      <c r="F290" s="7"/>
+      <c r="G290" s="7"/>
+      <c r="H290" s="7"/>
+      <c r="I290" s="7"/>
+      <c r="J290" s="7"/>
+      <c r="K290" s="7"/>
+      <c r="L290" s="7"/>
+      <c r="M290" s="7"/>
+      <c r="N290" s="7"/>
+      <c r="O290" s="7"/>
+      <c r="P290" s="7"/>
+    </row>
+    <row r="291" spans="1:16" ht="20" customHeight="1">
+      <c r="A291" s="6"/>
+      <c r="B291" s="7"/>
+      <c r="C291" s="7"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="7"/>
+      <c r="F291" s="7"/>
+      <c r="G291" s="7"/>
+      <c r="H291" s="7"/>
+      <c r="I291" s="7"/>
+      <c r="J291" s="7"/>
+      <c r="K291" s="7"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="7"/>
+      <c r="N291" s="7"/>
+      <c r="O291" s="7"/>
+      <c r="P291" s="7"/>
+    </row>
+    <row r="292" spans="1:16" ht="20" customHeight="1">
+      <c r="A292" s="6"/>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
+      <c r="F292" s="7"/>
+      <c r="G292" s="7"/>
+      <c r="H292" s="7"/>
+      <c r="I292" s="7"/>
+      <c r="J292" s="7"/>
+      <c r="K292" s="7"/>
+      <c r="L292" s="7"/>
+      <c r="M292" s="7"/>
+      <c r="N292" s="7"/>
+      <c r="O292" s="7"/>
+      <c r="P292" s="7"/>
+    </row>
+    <row r="293" spans="1:16" ht="20" customHeight="1">
+      <c r="A293" s="6"/>
+      <c r="B293" s="7"/>
+      <c r="C293" s="7"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="7"/>
+      <c r="F293" s="7"/>
+      <c r="G293" s="7"/>
+      <c r="H293" s="7"/>
+      <c r="I293" s="7"/>
+      <c r="J293" s="7"/>
+      <c r="K293" s="7"/>
+      <c r="L293" s="7"/>
+      <c r="M293" s="7"/>
+      <c r="N293" s="7"/>
+      <c r="O293" s="7"/>
+      <c r="P293" s="7"/>
+    </row>
+    <row r="294" spans="1:16" ht="20" customHeight="1">
+      <c r="A294" s="6"/>
+      <c r="B294" s="7"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="7"/>
+      <c r="J294" s="7"/>
+      <c r="K294" s="7"/>
+      <c r="L294" s="7"/>
+      <c r="M294" s="7"/>
+      <c r="N294" s="7"/>
+      <c r="O294" s="7"/>
+      <c r="P294" s="7"/>
+    </row>
+    <row r="295" spans="1:16" ht="20" customHeight="1">
+      <c r="A295" s="6"/>
+      <c r="B295" s="7"/>
+      <c r="C295" s="7"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="7"/>
+      <c r="F295" s="7"/>
+      <c r="G295" s="7"/>
+      <c r="H295" s="7"/>
+      <c r="I295" s="7"/>
+      <c r="J295" s="7"/>
+      <c r="K295" s="7"/>
+      <c r="L295" s="7"/>
+      <c r="M295" s="7"/>
+      <c r="N295" s="7"/>
+      <c r="O295" s="7"/>
+      <c r="P295" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/GrowUpTasks.xlsx
+++ b/datas/shared/GrowUpTasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="800" windowWidth="34580" windowHeight="18200" tabRatio="621"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="34580" windowHeight="18200" tabRatio="621" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cityBuild" sheetId="18" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="127">
   <si>
     <t>INT_wood</t>
   </si>
@@ -660,7 +660,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,12 +677,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB1A0C7"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1717,7 +1711,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1738,9 +1732,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3139,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1054"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B899" sqref="B899:K1054"/>
     </sheetView>
   </sheetViews>
@@ -41789,10 +41780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -43202,1053 +43193,1053 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="20" customHeight="1">
-      <c r="A41" s="8">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>200</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="20" customHeight="1">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>480</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="20" customHeight="1">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="D41" s="8">
-        <v>41</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0</v>
-      </c>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="20" customHeight="1">
-      <c r="A42" s="8">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8">
-        <v>41</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="8">
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>0</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="20" customHeight="1">
-      <c r="A43" s="8">
-        <v>41</v>
-      </c>
-      <c r="B43" s="8">
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>880</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="20" customHeight="1">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1920</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="20" customHeight="1">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>0</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20" customHeight="1">
-      <c r="A44" s="8">
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="8">
-        <v>43</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="8">
+      <c r="D45" s="1">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2500</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="20" customHeight="1">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>0</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="20" customHeight="1">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8">
-        <v>44</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="8">
+      <c r="B46" s="1">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="1">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>3120</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="20" customHeight="1">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <v>0</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="20" customHeight="1">
-      <c r="A46" s="8">
-        <v>44</v>
-      </c>
-      <c r="B46" s="8">
-        <v>45</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="8">
+      <c r="B47" s="1">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>3780</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="20" customHeight="1">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0</v>
-      </c>
-      <c r="H46" s="8">
-        <v>0</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="20" customHeight="1">
-      <c r="A47" s="8">
-        <v>45</v>
-      </c>
-      <c r="B47" s="8">
-        <v>46</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="8">
+      <c r="B48" s="1">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4480</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="20" customHeight="1">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8">
-        <v>0</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="20" customHeight="1">
-      <c r="A48" s="8">
-        <v>46</v>
-      </c>
-      <c r="B48" s="8">
-        <v>47</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="8">
+      <c r="B49" s="1">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" s="1">
+        <v>10</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>6000</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="20" customHeight="1">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8">
-        <v>0</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="20" customHeight="1">
-      <c r="A49" s="8">
-        <v>47</v>
-      </c>
-      <c r="B49" s="8">
-        <v>48</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="8">
+      <c r="B50" s="1">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="1">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>12400</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="20" customHeight="1">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="20" customHeight="1">
-      <c r="A50" s="8">
-        <v>48</v>
-      </c>
-      <c r="B50" s="8">
-        <v>49</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="8">
+      <c r="B51" s="1">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51" s="1">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>15360</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="20" customHeight="1">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="20" customHeight="1">
-      <c r="A51" s="8">
-        <v>49</v>
-      </c>
-      <c r="B51" s="8">
-        <v>50</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="8">
+      <c r="B52" s="1">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="1">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>18480</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="20" customHeight="1">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="20" customHeight="1">
-      <c r="A52" s="8">
-        <v>50</v>
-      </c>
-      <c r="B52" s="8">
-        <v>51</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="8">
+      <c r="B53" s="1">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="1">
+        <v>14</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>21760</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="20" customHeight="1">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0</v>
-      </c>
-      <c r="H52" s="8">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
-      <c r="K52" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="20" customHeight="1">
-      <c r="A53" s="8">
-        <v>51</v>
-      </c>
-      <c r="B53" s="8">
-        <v>52</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="8">
+      <c r="B54" s="1">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D54" s="1">
+        <v>15</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>25200</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="20" customHeight="1">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
-      <c r="K53" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="20" customHeight="1">
-      <c r="A54" s="8">
-        <v>52</v>
-      </c>
-      <c r="B54" s="8">
-        <v>53</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="8">
+      <c r="B55" s="1">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="1">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>28800</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="20" customHeight="1">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <v>0</v>
-      </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="20" customHeight="1">
-      <c r="A55" s="8">
-        <v>53</v>
-      </c>
-      <c r="B55" s="8">
-        <v>54</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="8">
+      <c r="B56" s="1">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="1">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>32560</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="20" customHeight="1">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0</v>
-      </c>
-      <c r="I55" s="8">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="20" customHeight="1">
-      <c r="A56" s="8">
-        <v>54</v>
-      </c>
-      <c r="B56" s="8">
-        <v>55</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="8">
+      <c r="B57" s="1">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="1">
+        <v>18</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>36480</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="20" customHeight="1">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
-        <v>0</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="20" customHeight="1">
-      <c r="A57" s="8">
-        <v>55</v>
-      </c>
-      <c r="B57" s="8">
-        <v>56</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D57" s="8">
+      <c r="B58" s="1">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D58" s="1">
+        <v>19</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>40560</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="20" customHeight="1">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="20" customHeight="1">
-      <c r="A58" s="8">
-        <v>56</v>
-      </c>
-      <c r="B58" s="8">
-        <v>57</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D58" s="8">
+      <c r="B59" s="1">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="1">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>44800</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="20" customHeight="1">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
-        <v>0</v>
-      </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="20" customHeight="1">
-      <c r="A59" s="8">
-        <v>57</v>
-      </c>
-      <c r="B59" s="8">
-        <v>58</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="8">
+      <c r="B60" s="1">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60" s="1">
+        <v>21</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>98560</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="20" customHeight="1">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="20" customHeight="1">
-      <c r="A60" s="8">
-        <v>58</v>
-      </c>
-      <c r="B60" s="8">
-        <v>59</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="8">
+      <c r="B61" s="1">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61" s="1">
+        <v>22</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>122880</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="20" customHeight="1">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8">
-        <v>0</v>
-      </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="20" customHeight="1">
-      <c r="A61" s="8">
-        <v>59</v>
-      </c>
-      <c r="B61" s="8">
-        <v>60</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="B62" s="1">
+        <v>22</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="1">
+        <v>23</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>149760</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="20" customHeight="1">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>0</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>0</v>
-      </c>
-      <c r="K61" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="20" customHeight="1">
-      <c r="A62" s="8">
-        <v>60</v>
-      </c>
-      <c r="B62" s="8">
-        <v>61</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="8">
+      <c r="B63" s="1">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D63" s="1">
+        <v>24</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>179200</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="20" customHeight="1">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8">
-        <v>0</v>
-      </c>
-      <c r="H62" s="8">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
-        <v>0</v>
-      </c>
-      <c r="K62" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="20" customHeight="1">
-      <c r="A63" s="8">
-        <v>61</v>
-      </c>
-      <c r="B63" s="8">
-        <v>62</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="8">
+      <c r="B64" s="1">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="1">
+        <v>25</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>211200</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20" customHeight="1">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="E63" s="8">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
-        <v>0</v>
-      </c>
-      <c r="H63" s="8">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="20" customHeight="1">
-      <c r="A64" s="8">
-        <v>62</v>
-      </c>
-      <c r="B64" s="8">
-        <v>63</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="8">
+      <c r="B65" s="1">
+        <v>25</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>245760</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20" customHeight="1">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
-        <v>0</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <v>0</v>
-      </c>
-      <c r="K64" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="20" customHeight="1">
-      <c r="A65" s="8">
-        <v>63</v>
-      </c>
-      <c r="B65" s="8">
-        <v>64</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="8">
+      <c r="B66" s="1">
+        <v>26</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="1">
+        <v>27</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>282880</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>5709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20" customHeight="1">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>0</v>
-      </c>
-      <c r="G65" s="8">
-        <v>0</v>
-      </c>
-      <c r="H65" s="8">
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0</v>
-      </c>
-      <c r="K65" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="20" customHeight="1">
-      <c r="A66" s="8">
-        <v>64</v>
-      </c>
-      <c r="B66" s="8">
-        <v>65</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="8">
+      <c r="B67" s="1">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="1">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>322560</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>6503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20" customHeight="1">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="E66" s="8">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
-      <c r="H66" s="8">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <v>0</v>
-      </c>
-      <c r="K66" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="20" customHeight="1">
-      <c r="A67" s="8">
-        <v>65</v>
-      </c>
-      <c r="B67" s="8">
-        <v>66</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="8">
+      <c r="B68" s="1">
+        <v>28</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="1">
+        <v>29</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>364800</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>7348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20" customHeight="1">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <v>0</v>
-      </c>
-      <c r="K67" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="20" customHeight="1">
-      <c r="A68" s="8">
-        <v>66</v>
-      </c>
-      <c r="B68" s="8">
-        <v>67</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="8">
+      <c r="B69" s="1">
+        <v>29</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="1">
+        <v>30</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>409600</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="20" customHeight="1">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8">
-        <v>0</v>
-      </c>
-      <c r="I68" s="8">
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <v>0</v>
-      </c>
-      <c r="K68" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="20" customHeight="1">
-      <c r="A69" s="8">
-        <v>67</v>
-      </c>
-      <c r="B69" s="8">
-        <v>68</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="8">
-        <v>69</v>
-      </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0</v>
-      </c>
-      <c r="H69" s="8">
-        <v>0</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0</v>
-      </c>
-      <c r="K69" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="20" customHeight="1">
-      <c r="A70" s="8">
-        <v>68</v>
-      </c>
-      <c r="B70" s="8">
-        <v>69</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="8">
-        <v>70</v>
-      </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
-      <c r="H70" s="8">
-        <v>0</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
-        <v>0</v>
-      </c>
-      <c r="K70" s="8">
-        <v>0</v>
+      <c r="B70" s="1">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="1">
+        <v>31</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>675840</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>13568</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="20" customHeight="1">
@@ -44256,13 +44247,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D71" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -44277,13 +44268,13 @@
         <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>200</v>
+        <v>798720</v>
       </c>
       <c r="J71" s="1">
         <v>0</v>
       </c>
       <c r="K71" s="1">
-        <v>56</v>
+        <v>16026</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="20" customHeight="1">
@@ -44291,13 +44282,13 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D72" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E72" s="1">
         <v>0</v>
@@ -44312,13 +44303,13 @@
         <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>480</v>
+        <v>931840</v>
       </c>
       <c r="J72" s="1">
         <v>0</v>
       </c>
       <c r="K72" s="1">
-        <v>61</v>
+        <v>18688</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="20" customHeight="1">
@@ -44326,13 +44317,13 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D73" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1">
         <v>0</v>
@@ -44347,13 +44338,13 @@
         <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>880</v>
+        <v>1075200</v>
       </c>
       <c r="J73" s="1">
         <v>0</v>
       </c>
       <c r="K73" s="1">
-        <v>69</v>
+        <v>21555</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="20" customHeight="1">
@@ -44361,13 +44352,13 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D74" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -44382,13 +44373,13 @@
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>1920</v>
+        <v>1228800</v>
       </c>
       <c r="J74" s="1">
         <v>0</v>
       </c>
       <c r="K74" s="1">
-        <v>90</v>
+        <v>24627</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="20" customHeight="1">
@@ -44396,13 +44387,13 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D75" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -44417,13 +44408,13 @@
         <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>2500</v>
+        <v>1392640</v>
       </c>
       <c r="J75" s="1">
         <v>0</v>
       </c>
       <c r="K75" s="1">
-        <v>101</v>
+        <v>27904</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="20" customHeight="1">
@@ -44431,13 +44422,13 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D76" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -44452,13 +44443,13 @@
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>3120</v>
+        <v>1566720</v>
       </c>
       <c r="J76" s="1">
         <v>0</v>
       </c>
       <c r="K76" s="1">
-        <v>114</v>
+        <v>31386</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="20" customHeight="1">
@@ -44466,13 +44457,13 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D77" s="1">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E77" s="1">
         <v>0</v>
@@ -44487,13 +44478,13 @@
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>3780</v>
+        <v>1751040</v>
       </c>
       <c r="J77" s="1">
         <v>0</v>
       </c>
       <c r="K77" s="1">
-        <v>127</v>
+        <v>35072</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="20" customHeight="1">
@@ -44501,13 +44492,13 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D78" s="1">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -44522,13 +44513,13 @@
         <v>0</v>
       </c>
       <c r="I78" s="1">
-        <v>4480</v>
+        <v>1945600</v>
       </c>
       <c r="J78" s="1">
         <v>0</v>
       </c>
       <c r="K78" s="1">
-        <v>141</v>
+        <v>38964</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="20" customHeight="1">
@@ -44536,13 +44527,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D79" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E79" s="1">
         <v>0</v>
@@ -44557,13 +44548,13 @@
         <v>0</v>
       </c>
       <c r="I79" s="1">
-        <v>6000</v>
+        <v>2150400</v>
       </c>
       <c r="J79" s="1">
         <v>0</v>
       </c>
       <c r="K79" s="1">
-        <v>171</v>
+        <v>43060</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="20" customHeight="1">
@@ -44571,13 +44562,13 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D80" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E80" s="1">
         <v>0</v>
@@ -44592,13 +44583,13 @@
         <v>0</v>
       </c>
       <c r="I80" s="1">
-        <v>12400</v>
+        <v>200</v>
       </c>
       <c r="J80" s="1">
         <v>0</v>
       </c>
       <c r="K80" s="1">
-        <v>299</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="20" customHeight="1">
@@ -44606,13 +44597,13 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D81" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
         <v>0</v>
@@ -44627,13 +44618,13 @@
         <v>0</v>
       </c>
       <c r="I81" s="1">
-        <v>15360</v>
+        <v>480</v>
       </c>
       <c r="J81" s="1">
         <v>0</v>
       </c>
       <c r="K81" s="1">
-        <v>359</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="20" customHeight="1">
@@ -44641,13 +44632,13 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D82" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -44662,13 +44653,13 @@
         <v>0</v>
       </c>
       <c r="I82" s="1">
-        <v>18480</v>
+        <v>880</v>
       </c>
       <c r="J82" s="1">
         <v>0</v>
       </c>
       <c r="K82" s="1">
-        <v>421</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="20" customHeight="1">
@@ -44676,13 +44667,13 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D83" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -44697,13 +44688,13 @@
         <v>0</v>
       </c>
       <c r="I83" s="1">
-        <v>21760</v>
+        <v>1920</v>
       </c>
       <c r="J83" s="1">
         <v>0</v>
       </c>
       <c r="K83" s="1">
-        <v>487</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="20" customHeight="1">
@@ -44711,13 +44702,13 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D84" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -44732,13 +44723,13 @@
         <v>0</v>
       </c>
       <c r="I84" s="1">
-        <v>25200</v>
+        <v>2500</v>
       </c>
       <c r="J84" s="1">
         <v>0</v>
       </c>
       <c r="K84" s="1">
-        <v>555</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="20" customHeight="1">
@@ -44746,13 +44737,13 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D85" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E85" s="1">
         <v>0</v>
@@ -44767,13 +44758,13 @@
         <v>0</v>
       </c>
       <c r="I85" s="1">
-        <v>28800</v>
+        <v>3120</v>
       </c>
       <c r="J85" s="1">
         <v>0</v>
       </c>
       <c r="K85" s="1">
-        <v>627</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="20" customHeight="1">
@@ -44781,13 +44772,13 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D86" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E86" s="1">
         <v>0</v>
@@ -44802,13 +44793,13 @@
         <v>0</v>
       </c>
       <c r="I86" s="1">
-        <v>32560</v>
+        <v>3780</v>
       </c>
       <c r="J86" s="1">
         <v>0</v>
       </c>
       <c r="K86" s="1">
-        <v>703</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20" customHeight="1">
@@ -44816,13 +44807,13 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D87" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -44837,13 +44828,13 @@
         <v>0</v>
       </c>
       <c r="I87" s="1">
-        <v>36480</v>
+        <v>4480</v>
       </c>
       <c r="J87" s="1">
         <v>0</v>
       </c>
       <c r="K87" s="1">
-        <v>781</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20" customHeight="1">
@@ -44851,13 +44842,13 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D88" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -44872,13 +44863,13 @@
         <v>0</v>
       </c>
       <c r="I88" s="1">
-        <v>40560</v>
+        <v>6000</v>
       </c>
       <c r="J88" s="1">
         <v>0</v>
       </c>
       <c r="K88" s="1">
-        <v>863</v>
+        <v>171</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="20" customHeight="1">
@@ -44886,13 +44877,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D89" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -44907,13 +44898,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="1">
-        <v>44800</v>
+        <v>12400</v>
       </c>
       <c r="J89" s="1">
         <v>0</v>
       </c>
       <c r="K89" s="1">
-        <v>948</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="20" customHeight="1">
@@ -44921,13 +44912,13 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D90" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1">
         <v>0</v>
@@ -44942,13 +44933,13 @@
         <v>0</v>
       </c>
       <c r="I90" s="1">
-        <v>98560</v>
+        <v>15360</v>
       </c>
       <c r="J90" s="1">
         <v>0</v>
       </c>
       <c r="K90" s="1">
-        <v>2023</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="20" customHeight="1">
@@ -44956,13 +44947,13 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D91" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -44977,13 +44968,13 @@
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>122880</v>
+        <v>18480</v>
       </c>
       <c r="J91" s="1">
         <v>0</v>
       </c>
       <c r="K91" s="1">
-        <v>2509</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="20" customHeight="1">
@@ -44991,13 +44982,13 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D92" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E92" s="1">
         <v>0</v>
@@ -45012,13 +45003,13 @@
         <v>0</v>
       </c>
       <c r="I92" s="1">
-        <v>149760</v>
+        <v>21760</v>
       </c>
       <c r="J92" s="1">
         <v>0</v>
       </c>
       <c r="K92" s="1">
-        <v>3047</v>
+        <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="20" customHeight="1">
@@ -45026,13 +45017,13 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D93" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E93" s="1">
         <v>0</v>
@@ -45047,13 +45038,13 @@
         <v>0</v>
       </c>
       <c r="I93" s="1">
-        <v>179200</v>
+        <v>25200</v>
       </c>
       <c r="J93" s="1">
         <v>0</v>
       </c>
       <c r="K93" s="1">
-        <v>3636</v>
+        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="20" customHeight="1">
@@ -45061,13 +45052,13 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D94" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E94" s="1">
         <v>0</v>
@@ -45082,13 +45073,13 @@
         <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>211200</v>
+        <v>28800</v>
       </c>
       <c r="J94" s="1">
         <v>0</v>
       </c>
       <c r="K94" s="1">
-        <v>4276</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="20" customHeight="1">
@@ -45096,13 +45087,13 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D95" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -45117,13 +45108,13 @@
         <v>0</v>
       </c>
       <c r="I95" s="1">
-        <v>245760</v>
+        <v>32560</v>
       </c>
       <c r="J95" s="1">
         <v>0</v>
       </c>
       <c r="K95" s="1">
-        <v>4967</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="20" customHeight="1">
@@ -45131,13 +45122,13 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D96" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -45152,13 +45143,13 @@
         <v>0</v>
       </c>
       <c r="I96" s="1">
-        <v>282880</v>
+        <v>36480</v>
       </c>
       <c r="J96" s="1">
         <v>0</v>
       </c>
       <c r="K96" s="1">
-        <v>5709</v>
+        <v>781</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="20" customHeight="1">
@@ -45166,13 +45157,13 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D97" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E97" s="1">
         <v>0</v>
@@ -45187,13 +45178,13 @@
         <v>0</v>
       </c>
       <c r="I97" s="1">
-        <v>322560</v>
+        <v>40560</v>
       </c>
       <c r="J97" s="1">
         <v>0</v>
       </c>
       <c r="K97" s="1">
-        <v>6503</v>
+        <v>863</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="20" customHeight="1">
@@ -45201,13 +45192,13 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D98" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1">
         <v>0</v>
@@ -45222,13 +45213,13 @@
         <v>0</v>
       </c>
       <c r="I98" s="1">
-        <v>364800</v>
+        <v>44800</v>
       </c>
       <c r="J98" s="1">
         <v>0</v>
       </c>
       <c r="K98" s="1">
-        <v>7348</v>
+        <v>948</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="20" customHeight="1">
@@ -45236,13 +45227,13 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D99" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -45257,13 +45248,13 @@
         <v>0</v>
       </c>
       <c r="I99" s="1">
-        <v>409600</v>
+        <v>98560</v>
       </c>
       <c r="J99" s="1">
         <v>0</v>
       </c>
       <c r="K99" s="1">
-        <v>8243</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="20" customHeight="1">
@@ -45271,13 +45262,13 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D100" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -45292,13 +45283,13 @@
         <v>0</v>
       </c>
       <c r="I100" s="1">
-        <v>675840</v>
+        <v>122880</v>
       </c>
       <c r="J100" s="1">
         <v>0</v>
       </c>
       <c r="K100" s="1">
-        <v>13568</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="20" customHeight="1">
@@ -45306,13 +45297,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D101" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -45327,13 +45318,13 @@
         <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>798720</v>
+        <v>149760</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
       </c>
       <c r="K101" s="1">
-        <v>16026</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="20" customHeight="1">
@@ -45341,13 +45332,13 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D102" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E102" s="1">
         <v>0</v>
@@ -45362,13 +45353,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>931840</v>
+        <v>179200</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
       </c>
       <c r="K102" s="1">
-        <v>18688</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="20" customHeight="1">
@@ -45376,13 +45367,13 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D103" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -45397,13 +45388,13 @@
         <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>1075200</v>
+        <v>211200</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
       </c>
       <c r="K103" s="1">
-        <v>21555</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="20" customHeight="1">
@@ -45411,13 +45402,13 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D104" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E104" s="1">
         <v>0</v>
@@ -45432,13 +45423,13 @@
         <v>0</v>
       </c>
       <c r="I104" s="1">
-        <v>1228800</v>
+        <v>245760</v>
       </c>
       <c r="J104" s="1">
         <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>24627</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="20" customHeight="1">
@@ -45446,13 +45437,13 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D105" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E105" s="1">
         <v>0</v>
@@ -45467,13 +45458,13 @@
         <v>0</v>
       </c>
       <c r="I105" s="1">
-        <v>1392640</v>
+        <v>282880</v>
       </c>
       <c r="J105" s="1">
         <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>27904</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="20" customHeight="1">
@@ -45481,13 +45472,13 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D106" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
@@ -45502,13 +45493,13 @@
         <v>0</v>
       </c>
       <c r="I106" s="1">
-        <v>1566720</v>
+        <v>322560</v>
       </c>
       <c r="J106" s="1">
         <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>31386</v>
+        <v>6503</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="20" customHeight="1">
@@ -45516,13 +45507,13 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D107" s="1">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -45537,13 +45528,13 @@
         <v>0</v>
       </c>
       <c r="I107" s="1">
-        <v>1751040</v>
+        <v>364800</v>
       </c>
       <c r="J107" s="1">
         <v>0</v>
       </c>
       <c r="K107" s="1">
-        <v>35072</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="20" customHeight="1">
@@ -45551,13 +45542,13 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D108" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E108" s="1">
         <v>0</v>
@@ -45572,13 +45563,13 @@
         <v>0</v>
       </c>
       <c r="I108" s="1">
-        <v>1945600</v>
+        <v>409600</v>
       </c>
       <c r="J108" s="1">
         <v>0</v>
       </c>
       <c r="K108" s="1">
-        <v>38964</v>
+        <v>8243</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="20" customHeight="1">
@@ -45586,13 +45577,13 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D109" s="1">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E109" s="1">
         <v>0</v>
@@ -45607,13 +45598,13 @@
         <v>0</v>
       </c>
       <c r="I109" s="1">
-        <v>2150400</v>
+        <v>675840</v>
       </c>
       <c r="J109" s="1">
         <v>0</v>
       </c>
       <c r="K109" s="1">
-        <v>43060</v>
+        <v>13568</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="20" customHeight="1">
@@ -45621,34 +45612,34 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" s="8">
-        <v>41</v>
-      </c>
-      <c r="E110" s="8">
-        <v>0</v>
-      </c>
-      <c r="F110" s="8">
-        <v>0</v>
-      </c>
-      <c r="G110" s="8">
-        <v>0</v>
-      </c>
-      <c r="H110" s="8">
-        <v>0</v>
-      </c>
-      <c r="I110" s="8">
-        <v>0</v>
-      </c>
-      <c r="J110" s="8">
-        <v>0</v>
-      </c>
-      <c r="K110" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D110" s="1">
+        <v>32</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0</v>
+      </c>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>798720</v>
+      </c>
+      <c r="J110" s="1">
+        <v>0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>16026</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="20" customHeight="1">
@@ -45656,34 +45647,34 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" s="8">
-        <v>42</v>
-      </c>
-      <c r="E111" s="8">
-        <v>0</v>
-      </c>
-      <c r="F111" s="8">
-        <v>0</v>
-      </c>
-      <c r="G111" s="8">
-        <v>0</v>
-      </c>
-      <c r="H111" s="8">
-        <v>0</v>
-      </c>
-      <c r="I111" s="8">
-        <v>0</v>
-      </c>
-      <c r="J111" s="8">
-        <v>0</v>
-      </c>
-      <c r="K111" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D111" s="1">
+        <v>33</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0</v>
+      </c>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>931840</v>
+      </c>
+      <c r="J111" s="1">
+        <v>0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>18688</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="20" customHeight="1">
@@ -45691,34 +45682,34 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112" s="8">
         <v>43</v>
       </c>
-      <c r="E112" s="8">
-        <v>0</v>
-      </c>
-      <c r="F112" s="8">
-        <v>0</v>
-      </c>
-      <c r="G112" s="8">
-        <v>0</v>
-      </c>
-      <c r="H112" s="8">
-        <v>0</v>
-      </c>
-      <c r="I112" s="8">
-        <v>0</v>
-      </c>
-      <c r="J112" s="8">
-        <v>0</v>
-      </c>
-      <c r="K112" s="8">
-        <v>0</v>
+      <c r="D112" s="1">
+        <v>34</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>1075200</v>
+      </c>
+      <c r="J112" s="1">
+        <v>0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>21555</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="20" customHeight="1">
@@ -45726,34 +45717,34 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
+        <v>34</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D113" s="8">
-        <v>44</v>
-      </c>
-      <c r="E113" s="8">
-        <v>0</v>
-      </c>
-      <c r="F113" s="8">
-        <v>0</v>
-      </c>
-      <c r="G113" s="8">
-        <v>0</v>
-      </c>
-      <c r="H113" s="8">
-        <v>0</v>
-      </c>
-      <c r="I113" s="8">
-        <v>0</v>
-      </c>
-      <c r="J113" s="8">
-        <v>0</v>
-      </c>
-      <c r="K113" s="8">
-        <v>0</v>
+      <c r="D113" s="1">
+        <v>35</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>1228800</v>
+      </c>
+      <c r="J113" s="1">
+        <v>0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>24627</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="20" customHeight="1">
@@ -45761,34 +45752,34 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" s="8">
-        <v>45</v>
-      </c>
-      <c r="E114" s="8">
-        <v>0</v>
-      </c>
-      <c r="F114" s="8">
-        <v>0</v>
-      </c>
-      <c r="G114" s="8">
-        <v>0</v>
-      </c>
-      <c r="H114" s="8">
-        <v>0</v>
-      </c>
-      <c r="I114" s="8">
-        <v>0</v>
-      </c>
-      <c r="J114" s="8">
-        <v>0</v>
-      </c>
-      <c r="K114" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D114" s="1">
+        <v>36</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0</v>
+      </c>
+      <c r="G114" s="1">
+        <v>0</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1392640</v>
+      </c>
+      <c r="J114" s="1">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>27904</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="20" customHeight="1">
@@ -45796,34 +45787,34 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" s="8">
-        <v>46</v>
-      </c>
-      <c r="E115" s="8">
-        <v>0</v>
-      </c>
-      <c r="F115" s="8">
-        <v>0</v>
-      </c>
-      <c r="G115" s="8">
-        <v>0</v>
-      </c>
-      <c r="H115" s="8">
-        <v>0</v>
-      </c>
-      <c r="I115" s="8">
-        <v>0</v>
-      </c>
-      <c r="J115" s="8">
-        <v>0</v>
-      </c>
-      <c r="K115" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D115" s="1">
+        <v>37</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>1566720</v>
+      </c>
+      <c r="J115" s="1">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>31386</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="20" customHeight="1">
@@ -45831,34 +45822,34 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D116" s="8">
-        <v>47</v>
-      </c>
-      <c r="E116" s="8">
-        <v>0</v>
-      </c>
-      <c r="F116" s="8">
-        <v>0</v>
-      </c>
-      <c r="G116" s="8">
-        <v>0</v>
-      </c>
-      <c r="H116" s="8">
-        <v>0</v>
-      </c>
-      <c r="I116" s="8">
-        <v>0</v>
-      </c>
-      <c r="J116" s="8">
-        <v>0</v>
-      </c>
-      <c r="K116" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D116" s="1">
+        <v>38</v>
+      </c>
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>1751040</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>35072</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="20" customHeight="1">
@@ -45866,34 +45857,34 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D117" s="8">
-        <v>48</v>
-      </c>
-      <c r="E117" s="8">
-        <v>0</v>
-      </c>
-      <c r="F117" s="8">
-        <v>0</v>
-      </c>
-      <c r="G117" s="8">
-        <v>0</v>
-      </c>
-      <c r="H117" s="8">
-        <v>0</v>
-      </c>
-      <c r="I117" s="8">
-        <v>0</v>
-      </c>
-      <c r="J117" s="8">
-        <v>0</v>
-      </c>
-      <c r="K117" s="8">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D117" s="1">
+        <v>39</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1">
+        <v>0</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1945600</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>38964</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="20" customHeight="1">
@@ -45901,3184 +45892,34 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" s="8">
-        <v>49</v>
-      </c>
-      <c r="E118" s="8">
-        <v>0</v>
-      </c>
-      <c r="F118" s="8">
-        <v>0</v>
-      </c>
-      <c r="G118" s="8">
-        <v>0</v>
-      </c>
-      <c r="H118" s="8">
-        <v>0</v>
-      </c>
-      <c r="I118" s="8">
-        <v>0</v>
-      </c>
-      <c r="J118" s="8">
-        <v>0</v>
-      </c>
-      <c r="K118" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="20" customHeight="1">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1">
-        <v>49</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" s="8">
-        <v>50</v>
-      </c>
-      <c r="E119" s="8">
-        <v>0</v>
-      </c>
-      <c r="F119" s="8">
-        <v>0</v>
-      </c>
-      <c r="G119" s="8">
-        <v>0</v>
-      </c>
-      <c r="H119" s="8">
-        <v>0</v>
-      </c>
-      <c r="I119" s="8">
-        <v>0</v>
-      </c>
-      <c r="J119" s="8">
-        <v>0</v>
-      </c>
-      <c r="K119" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="20" customHeight="1">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" s="1">
-        <v>50</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D120" s="8">
-        <v>51</v>
-      </c>
-      <c r="E120" s="8">
-        <v>0</v>
-      </c>
-      <c r="F120" s="8">
-        <v>0</v>
-      </c>
-      <c r="G120" s="8">
-        <v>0</v>
-      </c>
-      <c r="H120" s="8">
-        <v>0</v>
-      </c>
-      <c r="I120" s="8">
-        <v>0</v>
-      </c>
-      <c r="J120" s="8">
-        <v>0</v>
-      </c>
-      <c r="K120" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="20" customHeight="1">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1">
-        <v>51</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" s="8">
-        <v>52</v>
-      </c>
-      <c r="E121" s="8">
-        <v>0</v>
-      </c>
-      <c r="F121" s="8">
-        <v>0</v>
-      </c>
-      <c r="G121" s="8">
-        <v>0</v>
-      </c>
-      <c r="H121" s="8">
-        <v>0</v>
-      </c>
-      <c r="I121" s="8">
-        <v>0</v>
-      </c>
-      <c r="J121" s="8">
-        <v>0</v>
-      </c>
-      <c r="K121" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="20" customHeight="1">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" s="1">
-        <v>52</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="8">
-        <v>53</v>
-      </c>
-      <c r="E122" s="8">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8">
-        <v>0</v>
-      </c>
-      <c r="G122" s="8">
-        <v>0</v>
-      </c>
-      <c r="H122" s="8">
-        <v>0</v>
-      </c>
-      <c r="I122" s="8">
-        <v>0</v>
-      </c>
-      <c r="J122" s="8">
-        <v>0</v>
-      </c>
-      <c r="K122" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="20" customHeight="1">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" s="1">
-        <v>53</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="8">
-        <v>54</v>
-      </c>
-      <c r="E123" s="8">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8">
-        <v>0</v>
-      </c>
-      <c r="G123" s="8">
-        <v>0</v>
-      </c>
-      <c r="H123" s="8">
-        <v>0</v>
-      </c>
-      <c r="I123" s="8">
-        <v>0</v>
-      </c>
-      <c r="J123" s="8">
-        <v>0</v>
-      </c>
-      <c r="K123" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="20" customHeight="1">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" s="1">
-        <v>54</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D124" s="8">
-        <v>55</v>
-      </c>
-      <c r="E124" s="8">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8">
-        <v>0</v>
-      </c>
-      <c r="G124" s="8">
-        <v>0</v>
-      </c>
-      <c r="H124" s="8">
-        <v>0</v>
-      </c>
-      <c r="I124" s="8">
-        <v>0</v>
-      </c>
-      <c r="J124" s="8">
-        <v>0</v>
-      </c>
-      <c r="K124" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="20" customHeight="1">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" s="1">
-        <v>55</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D125" s="8">
-        <v>56</v>
-      </c>
-      <c r="E125" s="8">
-        <v>0</v>
-      </c>
-      <c r="F125" s="8">
-        <v>0</v>
-      </c>
-      <c r="G125" s="8">
-        <v>0</v>
-      </c>
-      <c r="H125" s="8">
-        <v>0</v>
-      </c>
-      <c r="I125" s="8">
-        <v>0</v>
-      </c>
-      <c r="J125" s="8">
-        <v>0</v>
-      </c>
-      <c r="K125" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="20" customHeight="1">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" s="1">
-        <v>56</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="8">
-        <v>57</v>
-      </c>
-      <c r="E126" s="8">
-        <v>0</v>
-      </c>
-      <c r="F126" s="8">
-        <v>0</v>
-      </c>
-      <c r="G126" s="8">
-        <v>0</v>
-      </c>
-      <c r="H126" s="8">
-        <v>0</v>
-      </c>
-      <c r="I126" s="8">
-        <v>0</v>
-      </c>
-      <c r="J126" s="8">
-        <v>0</v>
-      </c>
-      <c r="K126" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="20" customHeight="1">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" s="1">
-        <v>57</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D127" s="8">
-        <v>58</v>
-      </c>
-      <c r="E127" s="8">
-        <v>0</v>
-      </c>
-      <c r="F127" s="8">
-        <v>0</v>
-      </c>
-      <c r="G127" s="8">
-        <v>0</v>
-      </c>
-      <c r="H127" s="8">
-        <v>0</v>
-      </c>
-      <c r="I127" s="8">
-        <v>0</v>
-      </c>
-      <c r="J127" s="8">
-        <v>0</v>
-      </c>
-      <c r="K127" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="20" customHeight="1">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" s="1">
-        <v>58</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" s="8">
-        <v>59</v>
-      </c>
-      <c r="E128" s="8">
-        <v>0</v>
-      </c>
-      <c r="F128" s="8">
-        <v>0</v>
-      </c>
-      <c r="G128" s="8">
-        <v>0</v>
-      </c>
-      <c r="H128" s="8">
-        <v>0</v>
-      </c>
-      <c r="I128" s="8">
-        <v>0</v>
-      </c>
-      <c r="J128" s="8">
-        <v>0</v>
-      </c>
-      <c r="K128" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" ht="20" customHeight="1">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" s="1">
-        <v>59</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" s="8">
-        <v>60</v>
-      </c>
-      <c r="E129" s="8">
-        <v>0</v>
-      </c>
-      <c r="F129" s="8">
-        <v>0</v>
-      </c>
-      <c r="G129" s="8">
-        <v>0</v>
-      </c>
-      <c r="H129" s="8">
-        <v>0</v>
-      </c>
-      <c r="I129" s="8">
-        <v>0</v>
-      </c>
-      <c r="J129" s="8">
-        <v>0</v>
-      </c>
-      <c r="K129" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" ht="20" customHeight="1">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" s="1">
-        <v>60</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130" s="8">
-        <v>61</v>
-      </c>
-      <c r="E130" s="8">
-        <v>0</v>
-      </c>
-      <c r="F130" s="8">
-        <v>0</v>
-      </c>
-      <c r="G130" s="8">
-        <v>0</v>
-      </c>
-      <c r="H130" s="8">
-        <v>0</v>
-      </c>
-      <c r="I130" s="8">
-        <v>0</v>
-      </c>
-      <c r="J130" s="8">
-        <v>0</v>
-      </c>
-      <c r="K130" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="20" customHeight="1">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" s="1">
-        <v>61</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D131" s="8">
-        <v>62</v>
-      </c>
-      <c r="E131" s="8">
-        <v>0</v>
-      </c>
-      <c r="F131" s="8">
-        <v>0</v>
-      </c>
-      <c r="G131" s="8">
-        <v>0</v>
-      </c>
-      <c r="H131" s="8">
-        <v>0</v>
-      </c>
-      <c r="I131" s="8">
-        <v>0</v>
-      </c>
-      <c r="J131" s="8">
-        <v>0</v>
-      </c>
-      <c r="K131" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" ht="20" customHeight="1">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" s="1">
-        <v>62</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D132" s="8">
-        <v>63</v>
-      </c>
-      <c r="E132" s="8">
-        <v>0</v>
-      </c>
-      <c r="F132" s="8">
-        <v>0</v>
-      </c>
-      <c r="G132" s="8">
-        <v>0</v>
-      </c>
-      <c r="H132" s="8">
-        <v>0</v>
-      </c>
-      <c r="I132" s="8">
-        <v>0</v>
-      </c>
-      <c r="J132" s="8">
-        <v>0</v>
-      </c>
-      <c r="K132" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" ht="20" customHeight="1">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" s="1">
-        <v>63</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="8">
-        <v>64</v>
-      </c>
-      <c r="E133" s="8">
-        <v>0</v>
-      </c>
-      <c r="F133" s="8">
-        <v>0</v>
-      </c>
-      <c r="G133" s="8">
-        <v>0</v>
-      </c>
-      <c r="H133" s="8">
-        <v>0</v>
-      </c>
-      <c r="I133" s="8">
-        <v>0</v>
-      </c>
-      <c r="J133" s="8">
-        <v>0</v>
-      </c>
-      <c r="K133" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" ht="20" customHeight="1">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="1">
-        <v>64</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" s="8">
-        <v>65</v>
-      </c>
-      <c r="E134" s="8">
-        <v>0</v>
-      </c>
-      <c r="F134" s="8">
-        <v>0</v>
-      </c>
-      <c r="G134" s="8">
-        <v>0</v>
-      </c>
-      <c r="H134" s="8">
-        <v>0</v>
-      </c>
-      <c r="I134" s="8">
-        <v>0</v>
-      </c>
-      <c r="J134" s="8">
-        <v>0</v>
-      </c>
-      <c r="K134" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="20" customHeight="1">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" s="1">
-        <v>65</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" s="8">
-        <v>66</v>
-      </c>
-      <c r="E135" s="8">
-        <v>0</v>
-      </c>
-      <c r="F135" s="8">
-        <v>0</v>
-      </c>
-      <c r="G135" s="8">
-        <v>0</v>
-      </c>
-      <c r="H135" s="8">
-        <v>0</v>
-      </c>
-      <c r="I135" s="8">
-        <v>0</v>
-      </c>
-      <c r="J135" s="8">
-        <v>0</v>
-      </c>
-      <c r="K135" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" ht="20" customHeight="1">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="1">
-        <v>66</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D136" s="8">
-        <v>67</v>
-      </c>
-      <c r="E136" s="8">
-        <v>0</v>
-      </c>
-      <c r="F136" s="8">
-        <v>0</v>
-      </c>
-      <c r="G136" s="8">
-        <v>0</v>
-      </c>
-      <c r="H136" s="8">
-        <v>0</v>
-      </c>
-      <c r="I136" s="8">
-        <v>0</v>
-      </c>
-      <c r="J136" s="8">
-        <v>0</v>
-      </c>
-      <c r="K136" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="20" customHeight="1">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" s="1">
-        <v>67</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D137" s="8">
-        <v>68</v>
-      </c>
-      <c r="E137" s="8">
-        <v>0</v>
-      </c>
-      <c r="F137" s="8">
-        <v>0</v>
-      </c>
-      <c r="G137" s="8">
-        <v>0</v>
-      </c>
-      <c r="H137" s="8">
-        <v>0</v>
-      </c>
-      <c r="I137" s="8">
-        <v>0</v>
-      </c>
-      <c r="J137" s="8">
-        <v>0</v>
-      </c>
-      <c r="K137" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="20" customHeight="1">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" s="1">
-        <v>68</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D138" s="8">
-        <v>69</v>
-      </c>
-      <c r="E138" s="8">
-        <v>0</v>
-      </c>
-      <c r="F138" s="8">
-        <v>0</v>
-      </c>
-      <c r="G138" s="8">
-        <v>0</v>
-      </c>
-      <c r="H138" s="8">
-        <v>0</v>
-      </c>
-      <c r="I138" s="8">
-        <v>0</v>
-      </c>
-      <c r="J138" s="8">
-        <v>0</v>
-      </c>
-      <c r="K138" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="20" customHeight="1">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" s="1">
-        <v>69</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D139" s="8">
-        <v>70</v>
-      </c>
-      <c r="E139" s="8">
-        <v>0</v>
-      </c>
-      <c r="F139" s="8">
-        <v>0</v>
-      </c>
-      <c r="G139" s="8">
-        <v>0</v>
-      </c>
-      <c r="H139" s="8">
-        <v>0</v>
-      </c>
-      <c r="I139" s="8">
-        <v>0</v>
-      </c>
-      <c r="J139" s="8">
-        <v>0</v>
-      </c>
-      <c r="K139" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" ht="20" customHeight="1">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" s="1">
-        <v>1</v>
-      </c>
-      <c r="C140" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D140" s="1">
-        <v>2</v>
-      </c>
-      <c r="E140" s="1">
-        <v>0</v>
-      </c>
-      <c r="F140" s="1">
-        <v>0</v>
-      </c>
-      <c r="G140" s="1">
-        <v>0</v>
-      </c>
-      <c r="H140" s="1">
-        <v>0</v>
-      </c>
-      <c r="I140" s="1">
-        <v>200</v>
-      </c>
-      <c r="J140" s="1">
-        <v>0</v>
-      </c>
-      <c r="K140" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" ht="20" customHeight="1">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" s="1">
-        <v>2</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D141" s="1">
-        <v>3</v>
-      </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-      <c r="F141" s="1">
-        <v>0</v>
-      </c>
-      <c r="G141" s="1">
-        <v>0</v>
-      </c>
-      <c r="H141" s="1">
-        <v>0</v>
-      </c>
-      <c r="I141" s="1">
-        <v>480</v>
-      </c>
-      <c r="J141" s="1">
-        <v>0</v>
-      </c>
-      <c r="K141" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="20" customHeight="1">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="1">
-        <v>3</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" s="1">
-        <v>4</v>
-      </c>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
-      <c r="F142" s="1">
-        <v>0</v>
-      </c>
-      <c r="G142" s="1">
-        <v>0</v>
-      </c>
-      <c r="H142" s="1">
-        <v>0</v>
-      </c>
-      <c r="I142" s="1">
-        <v>880</v>
-      </c>
-      <c r="J142" s="1">
-        <v>0</v>
-      </c>
-      <c r="K142" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="20" customHeight="1">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" s="1">
-        <v>4</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D143" s="1">
-        <v>5</v>
-      </c>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
-      <c r="F143" s="1">
-        <v>0</v>
-      </c>
-      <c r="G143" s="1">
-        <v>0</v>
-      </c>
-      <c r="H143" s="1">
-        <v>0</v>
-      </c>
-      <c r="I143" s="1">
-        <v>1920</v>
-      </c>
-      <c r="J143" s="1">
-        <v>0</v>
-      </c>
-      <c r="K143" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="20" customHeight="1">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" s="1">
-        <v>5</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D144" s="1">
-        <v>6</v>
-      </c>
-      <c r="E144" s="1">
-        <v>0</v>
-      </c>
-      <c r="F144" s="1">
-        <v>0</v>
-      </c>
-      <c r="G144" s="1">
-        <v>0</v>
-      </c>
-      <c r="H144" s="1">
-        <v>0</v>
-      </c>
-      <c r="I144" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J144" s="1">
-        <v>0</v>
-      </c>
-      <c r="K144" s="1">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" ht="20" customHeight="1">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" s="1">
-        <v>6</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D145" s="1">
-        <v>7</v>
-      </c>
-      <c r="E145" s="1">
-        <v>0</v>
-      </c>
-      <c r="F145" s="1">
-        <v>0</v>
-      </c>
-      <c r="G145" s="1">
-        <v>0</v>
-      </c>
-      <c r="H145" s="1">
-        <v>0</v>
-      </c>
-      <c r="I145" s="1">
-        <v>3120</v>
-      </c>
-      <c r="J145" s="1">
-        <v>0</v>
-      </c>
-      <c r="K145" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" ht="20" customHeight="1">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" s="1">
-        <v>7</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D146" s="1">
-        <v>8</v>
-      </c>
-      <c r="E146" s="1">
-        <v>0</v>
-      </c>
-      <c r="F146" s="1">
-        <v>0</v>
-      </c>
-      <c r="G146" s="1">
-        <v>0</v>
-      </c>
-      <c r="H146" s="1">
-        <v>0</v>
-      </c>
-      <c r="I146" s="1">
-        <v>3780</v>
-      </c>
-      <c r="J146" s="1">
-        <v>0</v>
-      </c>
-      <c r="K146" s="1">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="20" customHeight="1">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" s="1">
-        <v>8</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D147" s="1">
-        <v>9</v>
-      </c>
-      <c r="E147" s="1">
-        <v>0</v>
-      </c>
-      <c r="F147" s="1">
-        <v>0</v>
-      </c>
-      <c r="G147" s="1">
-        <v>0</v>
-      </c>
-      <c r="H147" s="1">
-        <v>0</v>
-      </c>
-      <c r="I147" s="1">
-        <v>4480</v>
-      </c>
-      <c r="J147" s="1">
-        <v>0</v>
-      </c>
-      <c r="K147" s="1">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="20" customHeight="1">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" s="1">
-        <v>9</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D148" s="1">
-        <v>10</v>
-      </c>
-      <c r="E148" s="1">
-        <v>0</v>
-      </c>
-      <c r="F148" s="1">
-        <v>0</v>
-      </c>
-      <c r="G148" s="1">
-        <v>0</v>
-      </c>
-      <c r="H148" s="1">
-        <v>0</v>
-      </c>
-      <c r="I148" s="1">
-        <v>6000</v>
-      </c>
-      <c r="J148" s="1">
-        <v>0</v>
-      </c>
-      <c r="K148" s="1">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="20" customHeight="1">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" s="1">
-        <v>10</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D149" s="1">
-        <v>11</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
-      <c r="F149" s="1">
-        <v>0</v>
-      </c>
-      <c r="G149" s="1">
-        <v>0</v>
-      </c>
-      <c r="H149" s="1">
-        <v>0</v>
-      </c>
-      <c r="I149" s="1">
-        <v>12400</v>
-      </c>
-      <c r="J149" s="1">
-        <v>0</v>
-      </c>
-      <c r="K149" s="1">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="20" customHeight="1">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" s="1">
-        <v>11</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D150" s="1">
-        <v>12</v>
-      </c>
-      <c r="E150" s="1">
-        <v>0</v>
-      </c>
-      <c r="F150" s="1">
-        <v>0</v>
-      </c>
-      <c r="G150" s="1">
-        <v>0</v>
-      </c>
-      <c r="H150" s="1">
-        <v>0</v>
-      </c>
-      <c r="I150" s="1">
-        <v>15360</v>
-      </c>
-      <c r="J150" s="1">
-        <v>0</v>
-      </c>
-      <c r="K150" s="1">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="20" customHeight="1">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" s="1">
-        <v>12</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D151" s="1">
-        <v>13</v>
-      </c>
-      <c r="E151" s="1">
-        <v>0</v>
-      </c>
-      <c r="F151" s="1">
-        <v>0</v>
-      </c>
-      <c r="G151" s="1">
-        <v>0</v>
-      </c>
-      <c r="H151" s="1">
-        <v>0</v>
-      </c>
-      <c r="I151" s="1">
-        <v>18480</v>
-      </c>
-      <c r="J151" s="1">
-        <v>0</v>
-      </c>
-      <c r="K151" s="1">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" ht="20" customHeight="1">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" s="1">
-        <v>13</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D152" s="1">
-        <v>14</v>
-      </c>
-      <c r="E152" s="1">
-        <v>0</v>
-      </c>
-      <c r="F152" s="1">
-        <v>0</v>
-      </c>
-      <c r="G152" s="1">
-        <v>0</v>
-      </c>
-      <c r="H152" s="1">
-        <v>0</v>
-      </c>
-      <c r="I152" s="1">
-        <v>21760</v>
-      </c>
-      <c r="J152" s="1">
-        <v>0</v>
-      </c>
-      <c r="K152" s="1">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="20" customHeight="1">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" s="1">
-        <v>14</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D153" s="1">
-        <v>15</v>
-      </c>
-      <c r="E153" s="1">
-        <v>0</v>
-      </c>
-      <c r="F153" s="1">
-        <v>0</v>
-      </c>
-      <c r="G153" s="1">
-        <v>0</v>
-      </c>
-      <c r="H153" s="1">
-        <v>0</v>
-      </c>
-      <c r="I153" s="1">
-        <v>25200</v>
-      </c>
-      <c r="J153" s="1">
-        <v>0</v>
-      </c>
-      <c r="K153" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="20" customHeight="1">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" s="1">
-        <v>15</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D154" s="1">
-        <v>16</v>
-      </c>
-      <c r="E154" s="1">
-        <v>0</v>
-      </c>
-      <c r="F154" s="1">
-        <v>0</v>
-      </c>
-      <c r="G154" s="1">
-        <v>0</v>
-      </c>
-      <c r="H154" s="1">
-        <v>0</v>
-      </c>
-      <c r="I154" s="1">
-        <v>28800</v>
-      </c>
-      <c r="J154" s="1">
-        <v>0</v>
-      </c>
-      <c r="K154" s="1">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="20" customHeight="1">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" s="1">
-        <v>16</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D155" s="1">
-        <v>17</v>
-      </c>
-      <c r="E155" s="1">
-        <v>0</v>
-      </c>
-      <c r="F155" s="1">
-        <v>0</v>
-      </c>
-      <c r="G155" s="1">
-        <v>0</v>
-      </c>
-      <c r="H155" s="1">
-        <v>0</v>
-      </c>
-      <c r="I155" s="1">
-        <v>32560</v>
-      </c>
-      <c r="J155" s="1">
-        <v>0</v>
-      </c>
-      <c r="K155" s="1">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="20" customHeight="1">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" s="1">
-        <v>17</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D156" s="1">
-        <v>18</v>
-      </c>
-      <c r="E156" s="1">
-        <v>0</v>
-      </c>
-      <c r="F156" s="1">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1">
-        <v>0</v>
-      </c>
-      <c r="H156" s="1">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1">
-        <v>36480</v>
-      </c>
-      <c r="J156" s="1">
-        <v>0</v>
-      </c>
-      <c r="K156" s="1">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="20" customHeight="1">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" s="1">
-        <v>18</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D157" s="1">
-        <v>19</v>
-      </c>
-      <c r="E157" s="1">
-        <v>0</v>
-      </c>
-      <c r="F157" s="1">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1">
-        <v>0</v>
-      </c>
-      <c r="H157" s="1">
-        <v>0</v>
-      </c>
-      <c r="I157" s="1">
-        <v>40560</v>
-      </c>
-      <c r="J157" s="1">
-        <v>0</v>
-      </c>
-      <c r="K157" s="1">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="20" customHeight="1">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" s="1">
-        <v>19</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D158" s="1">
-        <v>20</v>
-      </c>
-      <c r="E158" s="1">
-        <v>0</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>44800</v>
-      </c>
-      <c r="J158" s="1">
-        <v>0</v>
-      </c>
-      <c r="K158" s="1">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="20" customHeight="1">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" s="1">
-        <v>20</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D159" s="1">
-        <v>21</v>
-      </c>
-      <c r="E159" s="1">
-        <v>0</v>
-      </c>
-      <c r="F159" s="1">
-        <v>0</v>
-      </c>
-      <c r="G159" s="1">
-        <v>0</v>
-      </c>
-      <c r="H159" s="1">
-        <v>0</v>
-      </c>
-      <c r="I159" s="1">
-        <v>98560</v>
-      </c>
-      <c r="J159" s="1">
-        <v>0</v>
-      </c>
-      <c r="K159" s="1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="20" customHeight="1">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" s="1">
-        <v>21</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D160" s="1">
-        <v>22</v>
-      </c>
-      <c r="E160" s="1">
-        <v>0</v>
-      </c>
-      <c r="F160" s="1">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1">
-        <v>0</v>
-      </c>
-      <c r="H160" s="1">
-        <v>0</v>
-      </c>
-      <c r="I160" s="1">
-        <v>122880</v>
-      </c>
-      <c r="J160" s="1">
-        <v>0</v>
-      </c>
-      <c r="K160" s="1">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="20" customHeight="1">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" s="1">
-        <v>22</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D161" s="1">
-        <v>23</v>
-      </c>
-      <c r="E161" s="1">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1">
-        <v>0</v>
-      </c>
-      <c r="H161" s="1">
-        <v>0</v>
-      </c>
-      <c r="I161" s="1">
-        <v>149760</v>
-      </c>
-      <c r="J161" s="1">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1">
-        <v>3047</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="20" customHeight="1">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" s="1">
-        <v>23</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D162" s="1">
-        <v>24</v>
-      </c>
-      <c r="E162" s="1">
-        <v>0</v>
-      </c>
-      <c r="F162" s="1">
-        <v>0</v>
-      </c>
-      <c r="G162" s="1">
-        <v>0</v>
-      </c>
-      <c r="H162" s="1">
-        <v>0</v>
-      </c>
-      <c r="I162" s="1">
-        <v>179200</v>
-      </c>
-      <c r="J162" s="1">
-        <v>0</v>
-      </c>
-      <c r="K162" s="1">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="20" customHeight="1">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" s="1">
-        <v>24</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D163" s="1">
-        <v>25</v>
-      </c>
-      <c r="E163" s="1">
-        <v>0</v>
-      </c>
-      <c r="F163" s="1">
-        <v>0</v>
-      </c>
-      <c r="G163" s="1">
-        <v>0</v>
-      </c>
-      <c r="H163" s="1">
-        <v>0</v>
-      </c>
-      <c r="I163" s="1">
-        <v>211200</v>
-      </c>
-      <c r="J163" s="1">
-        <v>0</v>
-      </c>
-      <c r="K163" s="1">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="20" customHeight="1">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" s="1">
-        <v>25</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D164" s="1">
-        <v>26</v>
-      </c>
-      <c r="E164" s="1">
-        <v>0</v>
-      </c>
-      <c r="F164" s="1">
-        <v>0</v>
-      </c>
-      <c r="G164" s="1">
-        <v>0</v>
-      </c>
-      <c r="H164" s="1">
-        <v>0</v>
-      </c>
-      <c r="I164" s="1">
-        <v>245760</v>
-      </c>
-      <c r="J164" s="1">
-        <v>0</v>
-      </c>
-      <c r="K164" s="1">
-        <v>4967</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="20" customHeight="1">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165" s="1">
-        <v>26</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D165" s="1">
-        <v>27</v>
-      </c>
-      <c r="E165" s="1">
-        <v>0</v>
-      </c>
-      <c r="F165" s="1">
-        <v>0</v>
-      </c>
-      <c r="G165" s="1">
-        <v>0</v>
-      </c>
-      <c r="H165" s="1">
-        <v>0</v>
-      </c>
-      <c r="I165" s="1">
-        <v>282880</v>
-      </c>
-      <c r="J165" s="1">
-        <v>0</v>
-      </c>
-      <c r="K165" s="1">
-        <v>5709</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="20" customHeight="1">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166" s="1">
-        <v>27</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D166" s="1">
-        <v>28</v>
-      </c>
-      <c r="E166" s="1">
-        <v>0</v>
-      </c>
-      <c r="F166" s="1">
-        <v>0</v>
-      </c>
-      <c r="G166" s="1">
-        <v>0</v>
-      </c>
-      <c r="H166" s="1">
-        <v>0</v>
-      </c>
-      <c r="I166" s="1">
-        <v>322560</v>
-      </c>
-      <c r="J166" s="1">
-        <v>0</v>
-      </c>
-      <c r="K166" s="1">
-        <v>6503</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="20" customHeight="1">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167" s="1">
-        <v>28</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D167" s="1">
-        <v>29</v>
-      </c>
-      <c r="E167" s="1">
-        <v>0</v>
-      </c>
-      <c r="F167" s="1">
-        <v>0</v>
-      </c>
-      <c r="G167" s="1">
-        <v>0</v>
-      </c>
-      <c r="H167" s="1">
-        <v>0</v>
-      </c>
-      <c r="I167" s="1">
-        <v>364800</v>
-      </c>
-      <c r="J167" s="1">
-        <v>0</v>
-      </c>
-      <c r="K167" s="1">
-        <v>7348</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="20" customHeight="1">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168" s="1">
-        <v>29</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D168" s="1">
-        <v>30</v>
-      </c>
-      <c r="E168" s="1">
-        <v>0</v>
-      </c>
-      <c r="F168" s="1">
-        <v>0</v>
-      </c>
-      <c r="G168" s="1">
-        <v>0</v>
-      </c>
-      <c r="H168" s="1">
-        <v>0</v>
-      </c>
-      <c r="I168" s="1">
-        <v>409600</v>
-      </c>
-      <c r="J168" s="1">
-        <v>0</v>
-      </c>
-      <c r="K168" s="1">
-        <v>8243</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="20" customHeight="1">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169" s="1">
-        <v>30</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D169" s="1">
-        <v>31</v>
-      </c>
-      <c r="E169" s="1">
-        <v>0</v>
-      </c>
-      <c r="F169" s="1">
-        <v>0</v>
-      </c>
-      <c r="G169" s="1">
-        <v>0</v>
-      </c>
-      <c r="H169" s="1">
-        <v>0</v>
-      </c>
-      <c r="I169" s="1">
-        <v>675840</v>
-      </c>
-      <c r="J169" s="1">
-        <v>0</v>
-      </c>
-      <c r="K169" s="1">
-        <v>13568</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="20" customHeight="1">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170" s="1">
-        <v>31</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D170" s="1">
-        <v>32</v>
-      </c>
-      <c r="E170" s="1">
-        <v>0</v>
-      </c>
-      <c r="F170" s="1">
-        <v>0</v>
-      </c>
-      <c r="G170" s="1">
-        <v>0</v>
-      </c>
-      <c r="H170" s="1">
-        <v>0</v>
-      </c>
-      <c r="I170" s="1">
-        <v>798720</v>
-      </c>
-      <c r="J170" s="1">
-        <v>0</v>
-      </c>
-      <c r="K170" s="1">
-        <v>16026</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="20" customHeight="1">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171" s="1">
-        <v>32</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D171" s="1">
-        <v>33</v>
-      </c>
-      <c r="E171" s="1">
-        <v>0</v>
-      </c>
-      <c r="F171" s="1">
-        <v>0</v>
-      </c>
-      <c r="G171" s="1">
-        <v>0</v>
-      </c>
-      <c r="H171" s="1">
-        <v>0</v>
-      </c>
-      <c r="I171" s="1">
-        <v>931840</v>
-      </c>
-      <c r="J171" s="1">
-        <v>0</v>
-      </c>
-      <c r="K171" s="1">
-        <v>18688</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="20" customHeight="1">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172" s="1">
-        <v>33</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D172" s="1">
-        <v>34</v>
-      </c>
-      <c r="E172" s="1">
-        <v>0</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-      <c r="G172" s="1">
-        <v>0</v>
-      </c>
-      <c r="H172" s="1">
-        <v>0</v>
-      </c>
-      <c r="I172" s="1">
-        <v>1075200</v>
-      </c>
-      <c r="J172" s="1">
-        <v>0</v>
-      </c>
-      <c r="K172" s="1">
-        <v>21555</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="20" customHeight="1">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" s="1">
-        <v>34</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D173" s="1">
-        <v>35</v>
-      </c>
-      <c r="E173" s="1">
-        <v>0</v>
-      </c>
-      <c r="F173" s="1">
-        <v>0</v>
-      </c>
-      <c r="G173" s="1">
-        <v>0</v>
-      </c>
-      <c r="H173" s="1">
-        <v>0</v>
-      </c>
-      <c r="I173" s="1">
-        <v>1228800</v>
-      </c>
-      <c r="J173" s="1">
-        <v>0</v>
-      </c>
-      <c r="K173" s="1">
-        <v>24627</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="20" customHeight="1">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" s="1">
-        <v>35</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D174" s="1">
-        <v>36</v>
-      </c>
-      <c r="E174" s="1">
-        <v>0</v>
-      </c>
-      <c r="F174" s="1">
-        <v>0</v>
-      </c>
-      <c r="G174" s="1">
-        <v>0</v>
-      </c>
-      <c r="H174" s="1">
-        <v>0</v>
-      </c>
-      <c r="I174" s="1">
-        <v>1392640</v>
-      </c>
-      <c r="J174" s="1">
-        <v>0</v>
-      </c>
-      <c r="K174" s="1">
-        <v>27904</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="20" customHeight="1">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" s="1">
-        <v>36</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D175" s="1">
-        <v>37</v>
-      </c>
-      <c r="E175" s="1">
-        <v>0</v>
-      </c>
-      <c r="F175" s="1">
-        <v>0</v>
-      </c>
-      <c r="G175" s="1">
-        <v>0</v>
-      </c>
-      <c r="H175" s="1">
-        <v>0</v>
-      </c>
-      <c r="I175" s="1">
-        <v>1566720</v>
-      </c>
-      <c r="J175" s="1">
-        <v>0</v>
-      </c>
-      <c r="K175" s="1">
-        <v>31386</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="20" customHeight="1">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" s="1">
-        <v>37</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D176" s="1">
-        <v>38</v>
-      </c>
-      <c r="E176" s="1">
-        <v>0</v>
-      </c>
-      <c r="F176" s="1">
-        <v>0</v>
-      </c>
-      <c r="G176" s="1">
-        <v>0</v>
-      </c>
-      <c r="H176" s="1">
-        <v>0</v>
-      </c>
-      <c r="I176" s="1">
-        <v>1751040</v>
-      </c>
-      <c r="J176" s="1">
-        <v>0</v>
-      </c>
-      <c r="K176" s="1">
-        <v>35072</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="20" customHeight="1">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" s="1">
-        <v>38</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D177" s="1">
-        <v>39</v>
-      </c>
-      <c r="E177" s="1">
-        <v>0</v>
-      </c>
-      <c r="F177" s="1">
-        <v>0</v>
-      </c>
-      <c r="G177" s="1">
-        <v>0</v>
-      </c>
-      <c r="H177" s="1">
-        <v>0</v>
-      </c>
-      <c r="I177" s="1">
-        <v>1945600</v>
-      </c>
-      <c r="J177" s="1">
-        <v>0</v>
-      </c>
-      <c r="K177" s="1">
-        <v>38964</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" ht="20" customHeight="1">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" s="1">
-        <v>39</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D178" s="1">
+      <c r="D118" s="1">
         <v>40</v>
       </c>
-      <c r="E178" s="1">
-        <v>0</v>
-      </c>
-      <c r="F178" s="1">
-        <v>0</v>
-      </c>
-      <c r="G178" s="1">
-        <v>0</v>
-      </c>
-      <c r="H178" s="1">
-        <v>0</v>
-      </c>
-      <c r="I178" s="1">
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1">
+        <v>0</v>
+      </c>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
         <v>2150400</v>
       </c>
-      <c r="J178" s="1">
-        <v>0</v>
-      </c>
-      <c r="K178" s="1">
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
         <v>43060</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" ht="20" customHeight="1">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" s="1">
-        <v>40</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D179" s="8">
-        <v>41</v>
-      </c>
-      <c r="E179" s="8">
-        <v>0</v>
-      </c>
-      <c r="F179" s="8">
-        <v>0</v>
-      </c>
-      <c r="G179" s="8">
-        <v>0</v>
-      </c>
-      <c r="H179" s="8">
-        <v>0</v>
-      </c>
-      <c r="I179" s="8">
-        <v>0</v>
-      </c>
-      <c r="J179" s="8">
-        <v>0</v>
-      </c>
-      <c r="K179" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" ht="20" customHeight="1">
-      <c r="A180" s="1">
-        <v>178</v>
-      </c>
-      <c r="B180" s="1">
-        <v>41</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D180" s="8">
-        <v>42</v>
-      </c>
-      <c r="E180" s="8">
-        <v>0</v>
-      </c>
-      <c r="F180" s="8">
-        <v>0</v>
-      </c>
-      <c r="G180" s="8">
-        <v>0</v>
-      </c>
-      <c r="H180" s="8">
-        <v>0</v>
-      </c>
-      <c r="I180" s="8">
-        <v>0</v>
-      </c>
-      <c r="J180" s="8">
-        <v>0</v>
-      </c>
-      <c r="K180" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" ht="20" customHeight="1">
-      <c r="A181" s="1">
-        <v>179</v>
-      </c>
-      <c r="B181" s="1">
-        <v>42</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D181" s="8">
-        <v>43</v>
-      </c>
-      <c r="E181" s="8">
-        <v>0</v>
-      </c>
-      <c r="F181" s="8">
-        <v>0</v>
-      </c>
-      <c r="G181" s="8">
-        <v>0</v>
-      </c>
-      <c r="H181" s="8">
-        <v>0</v>
-      </c>
-      <c r="I181" s="8">
-        <v>0</v>
-      </c>
-      <c r="J181" s="8">
-        <v>0</v>
-      </c>
-      <c r="K181" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" ht="20" customHeight="1">
-      <c r="A182" s="1">
-        <v>180</v>
-      </c>
-      <c r="B182" s="1">
-        <v>43</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D182" s="8">
-        <v>44</v>
-      </c>
-      <c r="E182" s="8">
-        <v>0</v>
-      </c>
-      <c r="F182" s="8">
-        <v>0</v>
-      </c>
-      <c r="G182" s="8">
-        <v>0</v>
-      </c>
-      <c r="H182" s="8">
-        <v>0</v>
-      </c>
-      <c r="I182" s="8">
-        <v>0</v>
-      </c>
-      <c r="J182" s="8">
-        <v>0</v>
-      </c>
-      <c r="K182" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" ht="20" customHeight="1">
-      <c r="A183" s="1">
-        <v>181</v>
-      </c>
-      <c r="B183" s="1">
-        <v>44</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D183" s="8">
-        <v>45</v>
-      </c>
-      <c r="E183" s="8">
-        <v>0</v>
-      </c>
-      <c r="F183" s="8">
-        <v>0</v>
-      </c>
-      <c r="G183" s="8">
-        <v>0</v>
-      </c>
-      <c r="H183" s="8">
-        <v>0</v>
-      </c>
-      <c r="I183" s="8">
-        <v>0</v>
-      </c>
-      <c r="J183" s="8">
-        <v>0</v>
-      </c>
-      <c r="K183" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" ht="20" customHeight="1">
-      <c r="A184" s="1">
-        <v>182</v>
-      </c>
-      <c r="B184" s="1">
-        <v>45</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D184" s="8">
-        <v>46</v>
-      </c>
-      <c r="E184" s="8">
-        <v>0</v>
-      </c>
-      <c r="F184" s="8">
-        <v>0</v>
-      </c>
-      <c r="G184" s="8">
-        <v>0</v>
-      </c>
-      <c r="H184" s="8">
-        <v>0</v>
-      </c>
-      <c r="I184" s="8">
-        <v>0</v>
-      </c>
-      <c r="J184" s="8">
-        <v>0</v>
-      </c>
-      <c r="K184" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="20" customHeight="1">
-      <c r="A185" s="1">
-        <v>183</v>
-      </c>
-      <c r="B185" s="1">
-        <v>46</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D185" s="8">
-        <v>47</v>
-      </c>
-      <c r="E185" s="8">
-        <v>0</v>
-      </c>
-      <c r="F185" s="8">
-        <v>0</v>
-      </c>
-      <c r="G185" s="8">
-        <v>0</v>
-      </c>
-      <c r="H185" s="8">
-        <v>0</v>
-      </c>
-      <c r="I185" s="8">
-        <v>0</v>
-      </c>
-      <c r="J185" s="8">
-        <v>0</v>
-      </c>
-      <c r="K185" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="20" customHeight="1">
-      <c r="A186" s="1">
-        <v>184</v>
-      </c>
-      <c r="B186" s="1">
-        <v>47</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D186" s="8">
-        <v>48</v>
-      </c>
-      <c r="E186" s="8">
-        <v>0</v>
-      </c>
-      <c r="F186" s="8">
-        <v>0</v>
-      </c>
-      <c r="G186" s="8">
-        <v>0</v>
-      </c>
-      <c r="H186" s="8">
-        <v>0</v>
-      </c>
-      <c r="I186" s="8">
-        <v>0</v>
-      </c>
-      <c r="J186" s="8">
-        <v>0</v>
-      </c>
-      <c r="K186" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" ht="20" customHeight="1">
-      <c r="A187" s="1">
-        <v>185</v>
-      </c>
-      <c r="B187" s="1">
-        <v>48</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D187" s="8">
-        <v>49</v>
-      </c>
-      <c r="E187" s="8">
-        <v>0</v>
-      </c>
-      <c r="F187" s="8">
-        <v>0</v>
-      </c>
-      <c r="G187" s="8">
-        <v>0</v>
-      </c>
-      <c r="H187" s="8">
-        <v>0</v>
-      </c>
-      <c r="I187" s="8">
-        <v>0</v>
-      </c>
-      <c r="J187" s="8">
-        <v>0</v>
-      </c>
-      <c r="K187" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" ht="20" customHeight="1">
-      <c r="A188" s="1">
-        <v>186</v>
-      </c>
-      <c r="B188" s="1">
-        <v>49</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D188" s="8">
-        <v>50</v>
-      </c>
-      <c r="E188" s="8">
-        <v>0</v>
-      </c>
-      <c r="F188" s="8">
-        <v>0</v>
-      </c>
-      <c r="G188" s="8">
-        <v>0</v>
-      </c>
-      <c r="H188" s="8">
-        <v>0</v>
-      </c>
-      <c r="I188" s="8">
-        <v>0</v>
-      </c>
-      <c r="J188" s="8">
-        <v>0</v>
-      </c>
-      <c r="K188" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" ht="20" customHeight="1">
-      <c r="A189" s="1">
-        <v>187</v>
-      </c>
-      <c r="B189" s="1">
-        <v>50</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D189" s="8">
-        <v>51</v>
-      </c>
-      <c r="E189" s="8">
-        <v>0</v>
-      </c>
-      <c r="F189" s="8">
-        <v>0</v>
-      </c>
-      <c r="G189" s="8">
-        <v>0</v>
-      </c>
-      <c r="H189" s="8">
-        <v>0</v>
-      </c>
-      <c r="I189" s="8">
-        <v>0</v>
-      </c>
-      <c r="J189" s="8">
-        <v>0</v>
-      </c>
-      <c r="K189" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" ht="20" customHeight="1">
-      <c r="A190" s="1">
-        <v>188</v>
-      </c>
-      <c r="B190" s="1">
-        <v>51</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D190" s="8">
-        <v>52</v>
-      </c>
-      <c r="E190" s="8">
-        <v>0</v>
-      </c>
-      <c r="F190" s="8">
-        <v>0</v>
-      </c>
-      <c r="G190" s="8">
-        <v>0</v>
-      </c>
-      <c r="H190" s="8">
-        <v>0</v>
-      </c>
-      <c r="I190" s="8">
-        <v>0</v>
-      </c>
-      <c r="J190" s="8">
-        <v>0</v>
-      </c>
-      <c r="K190" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="20" customHeight="1">
-      <c r="A191" s="1">
-        <v>189</v>
-      </c>
-      <c r="B191" s="1">
-        <v>52</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D191" s="8">
-        <v>53</v>
-      </c>
-      <c r="E191" s="8">
-        <v>0</v>
-      </c>
-      <c r="F191" s="8">
-        <v>0</v>
-      </c>
-      <c r="G191" s="8">
-        <v>0</v>
-      </c>
-      <c r="H191" s="8">
-        <v>0</v>
-      </c>
-      <c r="I191" s="8">
-        <v>0</v>
-      </c>
-      <c r="J191" s="8">
-        <v>0</v>
-      </c>
-      <c r="K191" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="20" customHeight="1">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192" s="1">
-        <v>53</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D192" s="8">
-        <v>54</v>
-      </c>
-      <c r="E192" s="8">
-        <v>0</v>
-      </c>
-      <c r="F192" s="8">
-        <v>0</v>
-      </c>
-      <c r="G192" s="8">
-        <v>0</v>
-      </c>
-      <c r="H192" s="8">
-        <v>0</v>
-      </c>
-      <c r="I192" s="8">
-        <v>0</v>
-      </c>
-      <c r="J192" s="8">
-        <v>0</v>
-      </c>
-      <c r="K192" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="20" customHeight="1">
-      <c r="A193" s="1">
-        <v>191</v>
-      </c>
-      <c r="B193" s="1">
-        <v>54</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D193" s="8">
-        <v>55</v>
-      </c>
-      <c r="E193" s="8">
-        <v>0</v>
-      </c>
-      <c r="F193" s="8">
-        <v>0</v>
-      </c>
-      <c r="G193" s="8">
-        <v>0</v>
-      </c>
-      <c r="H193" s="8">
-        <v>0</v>
-      </c>
-      <c r="I193" s="8">
-        <v>0</v>
-      </c>
-      <c r="J193" s="8">
-        <v>0</v>
-      </c>
-      <c r="K193" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" ht="20" customHeight="1">
-      <c r="A194" s="1">
-        <v>192</v>
-      </c>
-      <c r="B194" s="1">
-        <v>55</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D194" s="8">
-        <v>56</v>
-      </c>
-      <c r="E194" s="8">
-        <v>0</v>
-      </c>
-      <c r="F194" s="8">
-        <v>0</v>
-      </c>
-      <c r="G194" s="8">
-        <v>0</v>
-      </c>
-      <c r="H194" s="8">
-        <v>0</v>
-      </c>
-      <c r="I194" s="8">
-        <v>0</v>
-      </c>
-      <c r="J194" s="8">
-        <v>0</v>
-      </c>
-      <c r="K194" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="20" customHeight="1">
-      <c r="A195" s="1">
-        <v>193</v>
-      </c>
-      <c r="B195" s="1">
-        <v>56</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D195" s="8">
-        <v>57</v>
-      </c>
-      <c r="E195" s="8">
-        <v>0</v>
-      </c>
-      <c r="F195" s="8">
-        <v>0</v>
-      </c>
-      <c r="G195" s="8">
-        <v>0</v>
-      </c>
-      <c r="H195" s="8">
-        <v>0</v>
-      </c>
-      <c r="I195" s="8">
-        <v>0</v>
-      </c>
-      <c r="J195" s="8">
-        <v>0</v>
-      </c>
-      <c r="K195" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" ht="20" customHeight="1">
-      <c r="A196" s="1">
-        <v>194</v>
-      </c>
-      <c r="B196" s="1">
-        <v>57</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D196" s="8">
-        <v>58</v>
-      </c>
-      <c r="E196" s="8">
-        <v>0</v>
-      </c>
-      <c r="F196" s="8">
-        <v>0</v>
-      </c>
-      <c r="G196" s="8">
-        <v>0</v>
-      </c>
-      <c r="H196" s="8">
-        <v>0</v>
-      </c>
-      <c r="I196" s="8">
-        <v>0</v>
-      </c>
-      <c r="J196" s="8">
-        <v>0</v>
-      </c>
-      <c r="K196" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" ht="20" customHeight="1">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="1">
-        <v>58</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D197" s="8">
-        <v>59</v>
-      </c>
-      <c r="E197" s="8">
-        <v>0</v>
-      </c>
-      <c r="F197" s="8">
-        <v>0</v>
-      </c>
-      <c r="G197" s="8">
-        <v>0</v>
-      </c>
-      <c r="H197" s="8">
-        <v>0</v>
-      </c>
-      <c r="I197" s="8">
-        <v>0</v>
-      </c>
-      <c r="J197" s="8">
-        <v>0</v>
-      </c>
-      <c r="K197" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" ht="20" customHeight="1">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="1">
-        <v>59</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D198" s="8">
-        <v>60</v>
-      </c>
-      <c r="E198" s="8">
-        <v>0</v>
-      </c>
-      <c r="F198" s="8">
-        <v>0</v>
-      </c>
-      <c r="G198" s="8">
-        <v>0</v>
-      </c>
-      <c r="H198" s="8">
-        <v>0</v>
-      </c>
-      <c r="I198" s="8">
-        <v>0</v>
-      </c>
-      <c r="J198" s="8">
-        <v>0</v>
-      </c>
-      <c r="K198" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="20" customHeight="1">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="1">
-        <v>60</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D199" s="8">
-        <v>61</v>
-      </c>
-      <c r="E199" s="8">
-        <v>0</v>
-      </c>
-      <c r="F199" s="8">
-        <v>0</v>
-      </c>
-      <c r="G199" s="8">
-        <v>0</v>
-      </c>
-      <c r="H199" s="8">
-        <v>0</v>
-      </c>
-      <c r="I199" s="8">
-        <v>0</v>
-      </c>
-      <c r="J199" s="8">
-        <v>0</v>
-      </c>
-      <c r="K199" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" ht="20" customHeight="1">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1">
-        <v>61</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D200" s="8">
-        <v>62</v>
-      </c>
-      <c r="E200" s="8">
-        <v>0</v>
-      </c>
-      <c r="F200" s="8">
-        <v>0</v>
-      </c>
-      <c r="G200" s="8">
-        <v>0</v>
-      </c>
-      <c r="H200" s="8">
-        <v>0</v>
-      </c>
-      <c r="I200" s="8">
-        <v>0</v>
-      </c>
-      <c r="J200" s="8">
-        <v>0</v>
-      </c>
-      <c r="K200" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="20" customHeight="1">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1">
-        <v>62</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D201" s="8">
-        <v>63</v>
-      </c>
-      <c r="E201" s="8">
-        <v>0</v>
-      </c>
-      <c r="F201" s="8">
-        <v>0</v>
-      </c>
-      <c r="G201" s="8">
-        <v>0</v>
-      </c>
-      <c r="H201" s="8">
-        <v>0</v>
-      </c>
-      <c r="I201" s="8">
-        <v>0</v>
-      </c>
-      <c r="J201" s="8">
-        <v>0</v>
-      </c>
-      <c r="K201" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="20" customHeight="1">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="1">
-        <v>63</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D202" s="8">
-        <v>64</v>
-      </c>
-      <c r="E202" s="8">
-        <v>0</v>
-      </c>
-      <c r="F202" s="8">
-        <v>0</v>
-      </c>
-      <c r="G202" s="8">
-        <v>0</v>
-      </c>
-      <c r="H202" s="8">
-        <v>0</v>
-      </c>
-      <c r="I202" s="8">
-        <v>0</v>
-      </c>
-      <c r="J202" s="8">
-        <v>0</v>
-      </c>
-      <c r="K202" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="20" customHeight="1">
-      <c r="A203" s="1">
-        <v>201</v>
-      </c>
-      <c r="B203" s="1">
-        <v>64</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D203" s="8">
-        <v>65</v>
-      </c>
-      <c r="E203" s="8">
-        <v>0</v>
-      </c>
-      <c r="F203" s="8">
-        <v>0</v>
-      </c>
-      <c r="G203" s="8">
-        <v>0</v>
-      </c>
-      <c r="H203" s="8">
-        <v>0</v>
-      </c>
-      <c r="I203" s="8">
-        <v>0</v>
-      </c>
-      <c r="J203" s="8">
-        <v>0</v>
-      </c>
-      <c r="K203" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="20" customHeight="1">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204" s="1">
-        <v>65</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D204" s="8">
-        <v>66</v>
-      </c>
-      <c r="E204" s="8">
-        <v>0</v>
-      </c>
-      <c r="F204" s="8">
-        <v>0</v>
-      </c>
-      <c r="G204" s="8">
-        <v>0</v>
-      </c>
-      <c r="H204" s="8">
-        <v>0</v>
-      </c>
-      <c r="I204" s="8">
-        <v>0</v>
-      </c>
-      <c r="J204" s="8">
-        <v>0</v>
-      </c>
-      <c r="K204" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="20" customHeight="1">
-      <c r="A205" s="1">
-        <v>203</v>
-      </c>
-      <c r="B205" s="1">
-        <v>66</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D205" s="8">
-        <v>67</v>
-      </c>
-      <c r="E205" s="8">
-        <v>0</v>
-      </c>
-      <c r="F205" s="8">
-        <v>0</v>
-      </c>
-      <c r="G205" s="8">
-        <v>0</v>
-      </c>
-      <c r="H205" s="8">
-        <v>0</v>
-      </c>
-      <c r="I205" s="8">
-        <v>0</v>
-      </c>
-      <c r="J205" s="8">
-        <v>0</v>
-      </c>
-      <c r="K205" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" ht="20" customHeight="1">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206" s="1">
-        <v>67</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D206" s="8">
-        <v>68</v>
-      </c>
-      <c r="E206" s="8">
-        <v>0</v>
-      </c>
-      <c r="F206" s="8">
-        <v>0</v>
-      </c>
-      <c r="G206" s="8">
-        <v>0</v>
-      </c>
-      <c r="H206" s="8">
-        <v>0</v>
-      </c>
-      <c r="I206" s="8">
-        <v>0</v>
-      </c>
-      <c r="J206" s="8">
-        <v>0</v>
-      </c>
-      <c r="K206" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="20" customHeight="1">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207" s="1">
-        <v>68</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D207" s="8">
-        <v>69</v>
-      </c>
-      <c r="E207" s="8">
-        <v>0</v>
-      </c>
-      <c r="F207" s="8">
-        <v>0</v>
-      </c>
-      <c r="G207" s="8">
-        <v>0</v>
-      </c>
-      <c r="H207" s="8">
-        <v>0</v>
-      </c>
-      <c r="I207" s="8">
-        <v>0</v>
-      </c>
-      <c r="J207" s="8">
-        <v>0</v>
-      </c>
-      <c r="K207" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" ht="20" customHeight="1">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208" s="1">
-        <v>69</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D208" s="8">
-        <v>70</v>
-      </c>
-      <c r="E208" s="8">
-        <v>0</v>
-      </c>
-      <c r="F208" s="8">
-        <v>0</v>
-      </c>
-      <c r="G208" s="8">
-        <v>0</v>
-      </c>
-      <c r="H208" s="8">
-        <v>0</v>
-      </c>
-      <c r="I208" s="8">
-        <v>0</v>
-      </c>
-      <c r="J208" s="8">
-        <v>0</v>
-      </c>
-      <c r="K208" s="8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/datas/shared/GrowUpTasks.xlsx
+++ b/datas/shared/GrowUpTasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="34580" windowHeight="18200" tabRatio="621" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="1300" windowWidth="34580" windowHeight="18200" tabRatio="621" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="cityBuild" sheetId="18" r:id="rId1"/>
@@ -759,7 +759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="946">
+  <cellStyleXfs count="956">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1710,8 +1710,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1734,8 +1744,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="946">
+  <cellStyles count="956">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2211,6 +2224,11 @@
     <cellStyle name="超链接" xfId="940" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="942" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="944" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="946" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="948" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2679,6 +2697,11 @@
     <cellStyle name="访问过的超链接" xfId="941" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="943" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="945" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="947" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="949" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -40928,10 +40951,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -40980,19 +41003,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G2" s="1">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -41001,7 +41024,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>400</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20" customHeight="1">
@@ -41012,28 +41035,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>200</v>
-      </c>
-      <c r="D3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E3" s="6">
-        <v>20000</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="6">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20" customHeight="1">
@@ -41044,19 +41067,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="6">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="F4" s="6">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="G4" s="6">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -41065,7 +41088,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>2000</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20" customHeight="1">
@@ -41076,28 +41099,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25000</v>
+      </c>
+      <c r="E5" s="6">
+        <v>25000</v>
+      </c>
+      <c r="F5" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G5" s="6">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>1000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="6">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="6">
-        <v>100000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>100000</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20" customHeight="1">
@@ -41108,28 +41131,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="G6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>2000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>200000</v>
-      </c>
-      <c r="E6" s="6">
-        <v>200000</v>
-      </c>
-      <c r="F6" s="6">
-        <v>200000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>200000</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1">
@@ -41140,19 +41163,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="1">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="6">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="F7" s="6">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="G7" s="6">
-        <v>400000</v>
+        <v>100000</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -41161,7 +41184,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1">
@@ -41172,19 +41195,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D8" s="1">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="E8" s="6">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="F8" s="6">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="G8" s="6">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -41193,7 +41216,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>24000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20" customHeight="1">
@@ -41204,19 +41227,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D9" s="1">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="E9" s="6">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="F9" s="6">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="G9" s="6">
-        <v>800000</v>
+        <v>300000</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -41225,7 +41248,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>32000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20" customHeight="1">
@@ -41236,19 +41259,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D10" s="1">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="E10" s="6">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="F10" s="6">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="G10" s="6">
-        <v>1000000</v>
+        <v>400000</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -41257,7 +41280,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>40000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
@@ -41268,19 +41291,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D11" s="1">
-        <v>1200000</v>
+        <v>500000</v>
       </c>
       <c r="E11" s="6">
-        <v>1200000</v>
+        <v>500000</v>
       </c>
       <c r="F11" s="6">
-        <v>1200000</v>
+        <v>500000</v>
       </c>
       <c r="G11" s="6">
-        <v>1200000</v>
+        <v>500000</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -41289,7 +41312,135 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>48000</v>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>500000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>600000</v>
+      </c>
+      <c r="E12" s="6">
+        <v>600000</v>
+      </c>
+      <c r="F12" s="6">
+        <v>600000</v>
+      </c>
+      <c r="G12" s="6">
+        <v>600000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>700000</v>
+      </c>
+      <c r="E13" s="6">
+        <v>700000</v>
+      </c>
+      <c r="F13" s="6">
+        <v>700000</v>
+      </c>
+      <c r="G13" s="6">
+        <v>700000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>800000</v>
+      </c>
+      <c r="E14" s="6">
+        <v>800000</v>
+      </c>
+      <c r="F14" s="6">
+        <v>800000</v>
+      </c>
+      <c r="G14" s="6">
+        <v>800000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>900000</v>
+      </c>
+      <c r="E15" s="6">
+        <v>900000</v>
+      </c>
+      <c r="F15" s="6">
+        <v>900000</v>
+      </c>
+      <c r="G15" s="6">
+        <v>900000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -41309,7 +41460,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="J2" sqref="J2:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -41357,8 +41508,8 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>1000</v>
+      <c r="C2" s="8">
+        <v>2000</v>
       </c>
       <c r="D2" s="1">
         <v>5000</v>
@@ -41379,7 +41530,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20" customHeight="1">
@@ -41389,8 +41540,8 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <v>2000</v>
+      <c r="C3" s="8">
+        <v>5000</v>
       </c>
       <c r="D3" s="1">
         <v>10000</v>
@@ -41411,7 +41562,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="20" customHeight="1">
@@ -41421,8 +41572,8 @@
       <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>5000</v>
+      <c r="C4" s="8">
+        <v>10000</v>
       </c>
       <c r="D4" s="1">
         <v>25000</v>
@@ -41443,7 +41594,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20" customHeight="1">
@@ -41453,8 +41604,8 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>10000</v>
+      <c r="C5" s="8">
+        <v>20000</v>
       </c>
       <c r="D5" s="1">
         <v>50000</v>
@@ -41475,7 +41626,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20" customHeight="1">
@@ -41485,8 +41636,8 @@
       <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>20000</v>
+      <c r="C6" s="8">
+        <v>50000</v>
       </c>
       <c r="D6" s="1">
         <v>100000</v>
@@ -41507,7 +41658,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1">
@@ -41517,8 +41668,8 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>50000</v>
+      <c r="C7" s="8">
+        <v>100000</v>
       </c>
       <c r="D7" s="1">
         <v>200000</v>
@@ -41539,7 +41690,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1">
@@ -41549,8 +41700,8 @@
       <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>100000</v>
+      <c r="C8" s="8">
+        <v>200000</v>
       </c>
       <c r="D8" s="1">
         <v>300000</v>
@@ -41571,7 +41722,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>3000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20" customHeight="1">
@@ -41581,8 +41732,8 @@
       <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>200000</v>
+      <c r="C9" s="8">
+        <v>500000</v>
       </c>
       <c r="D9" s="1">
         <v>400000</v>
@@ -41603,7 +41754,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>10000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20" customHeight="1">
@@ -41613,8 +41764,8 @@
       <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <v>500000</v>
+      <c r="C10" s="8">
+        <v>1000000</v>
       </c>
       <c r="D10" s="1">
         <v>500000</v>
@@ -41645,8 +41796,8 @@
       <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
-        <v>1000000</v>
+      <c r="C11" s="8">
+        <v>2000000</v>
       </c>
       <c r="D11" s="1">
         <v>600000</v>
@@ -41667,7 +41818,7 @@
         <v>200</v>
       </c>
       <c r="J11" s="1">
-        <v>40000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20" customHeight="1">
@@ -41677,8 +41828,8 @@
       <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1">
-        <v>2000000</v>
+      <c r="C12" s="8">
+        <v>5000000</v>
       </c>
       <c r="D12" s="1">
         <v>700000</v>
@@ -41699,7 +41850,7 @@
         <v>300</v>
       </c>
       <c r="J12" s="1">
-        <v>60000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
@@ -41709,8 +41860,8 @@
       <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="1">
-        <v>5000000</v>
+      <c r="C13" s="8">
+        <v>10000000</v>
       </c>
       <c r="D13" s="1">
         <v>800000</v>
@@ -41731,7 +41882,7 @@
         <v>400</v>
       </c>
       <c r="J13" s="1">
-        <v>80000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1">
@@ -41741,8 +41892,8 @@
       <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="1">
-        <v>10000000</v>
+      <c r="C14" s="8">
+        <v>20000000</v>
       </c>
       <c r="D14" s="1">
         <v>900000</v>
@@ -41763,7 +41914,7 @@
         <v>500</v>
       </c>
       <c r="J14" s="1">
-        <v>100000</v>
+        <v>36000</v>
       </c>
     </row>
   </sheetData>
@@ -41782,7 +41933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P118"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A118"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/GrowUpTasks.xlsx
+++ b/datas/shared/GrowUpTasks.xlsx
@@ -759,7 +759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="956">
+  <cellStyleXfs count="960">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -774,6 +774,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1748,7 +1752,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="956">
+  <cellStyles count="960">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2229,6 +2233,8 @@
     <cellStyle name="超链接" xfId="950" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="952" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="954" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="956" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="958" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -2702,6 +2708,8 @@
     <cellStyle name="访问过的超链接" xfId="951" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="953" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="955" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="957" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="959" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -40954,7 +40962,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -41003,7 +41011,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="1">
         <v>2000</v>
@@ -41035,7 +41043,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D3" s="1">
         <v>5000</v>
@@ -41067,7 +41075,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="1">
         <v>10000</v>
@@ -41099,7 +41107,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="D5" s="1">
         <v>25000</v>
@@ -41131,7 +41139,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="1">
         <v>50000</v>
@@ -41163,7 +41171,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="D7" s="1">
         <v>100000</v>
@@ -41195,7 +41203,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="D8" s="1">
         <v>200000</v>
@@ -41227,7 +41235,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="D9" s="1">
         <v>300000</v>
@@ -41259,7 +41267,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="D10" s="1">
         <v>400000</v>
@@ -41291,7 +41299,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D11" s="1">
         <v>500000</v>
@@ -41323,7 +41331,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>500000</v>
+        <v>2000000</v>
       </c>
       <c r="D12" s="1">
         <v>600000</v>
@@ -41355,7 +41363,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="D13" s="1">
         <v>700000</v>
@@ -41387,7 +41395,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="D14" s="1">
         <v>800000</v>
@@ -41419,7 +41427,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="D15" s="1">
         <v>900000</v>
